--- a/docs/blog.csv.xlsx
+++ b/docs/blog.csv.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alank\source\repos\blog-listing-application\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C27D5BB-7213-4AA8-9FD7-3810DA941C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F052E-6E24-4C1A-A64B-9013EFFF98A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9360" activeTab="3" xr2:uid="{1DD7D00E-AB4E-489D-B05C-50AAA1CEC988}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{1DD7D00E-AB4E-489D-B05C-50AAA1CEC988}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Blogs" sheetId="4" r:id="rId2"/>
     <sheet name="Authors" sheetId="3" r:id="rId3"/>
     <sheet name="Titles" sheetId="7" r:id="rId4"/>
-    <sheet name="Departments" sheetId="5" r:id="rId5"/>
-    <sheet name="Topics" sheetId="2" r:id="rId6"/>
+    <sheet name="Topics" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -207,18 +206,6 @@
     <t>Contents</t>
   </si>
   <si>
-    <t>DepartmentId</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>ChairPerson</t>
-  </si>
-  <si>
-    <t>DepartmentName</t>
-  </si>
-  <si>
     <t>Boatwright</t>
   </si>
   <si>
@@ -354,321 +341,6 @@
     <t>divane@illinois.edu</t>
   </si>
   <si>
-    <t>Seekings</t>
-  </si>
-  <si>
-    <t>Allx</t>
-  </si>
-  <si>
-    <t>aseekingsf@aol.com</t>
-  </si>
-  <si>
-    <t>Rubinowicz</t>
-  </si>
-  <si>
-    <t>Shanta</t>
-  </si>
-  <si>
-    <t>srubinowiczg@stanford.edu</t>
-  </si>
-  <si>
-    <t>Glendza</t>
-  </si>
-  <si>
-    <t>Sloane</t>
-  </si>
-  <si>
-    <t>sglendzah@ibm.com</t>
-  </si>
-  <si>
-    <t>Kilban</t>
-  </si>
-  <si>
-    <t>Wendeline</t>
-  </si>
-  <si>
-    <t>wkilbani@examiner.com</t>
-  </si>
-  <si>
-    <t>Noni</t>
-  </si>
-  <si>
-    <t>Roshelle</t>
-  </si>
-  <si>
-    <t>rnonij@ebay.com</t>
-  </si>
-  <si>
-    <t>Halse</t>
-  </si>
-  <si>
-    <t>Corene</t>
-  </si>
-  <si>
-    <t>chalsek@nps.gov</t>
-  </si>
-  <si>
-    <t>Olcot</t>
-  </si>
-  <si>
-    <t>Katlin</t>
-  </si>
-  <si>
-    <t>kolcotl@free.fr</t>
-  </si>
-  <si>
-    <t>Paike</t>
-  </si>
-  <si>
-    <t>Merla</t>
-  </si>
-  <si>
-    <t>mpaikem@sphinn.com</t>
-  </si>
-  <si>
-    <t>Rolfi</t>
-  </si>
-  <si>
-    <t>Georgetta</t>
-  </si>
-  <si>
-    <t>grolfin@usa.gov</t>
-  </si>
-  <si>
-    <t>MacEvilly</t>
-  </si>
-  <si>
-    <t>Demetre</t>
-  </si>
-  <si>
-    <t>dmacevillyo@upenn.edu</t>
-  </si>
-  <si>
-    <t>Keddie</t>
-  </si>
-  <si>
-    <t>Lissi</t>
-  </si>
-  <si>
-    <t>lkeddiep@tripadvisor.com</t>
-  </si>
-  <si>
-    <t>Scorrer</t>
-  </si>
-  <si>
-    <t>Theresita</t>
-  </si>
-  <si>
-    <t>tscorrerq@intel.com</t>
-  </si>
-  <si>
-    <t>Bilverstone</t>
-  </si>
-  <si>
-    <t>Joell</t>
-  </si>
-  <si>
-    <t>jbilverstoner@lycos.com</t>
-  </si>
-  <si>
-    <t>Bowle</t>
-  </si>
-  <si>
-    <t>Vivienne</t>
-  </si>
-  <si>
-    <t>vbowles@prnewswire.com</t>
-  </si>
-  <si>
-    <t>Stranio</t>
-  </si>
-  <si>
-    <t>Rodi</t>
-  </si>
-  <si>
-    <t>rstraniot@histats.com</t>
-  </si>
-  <si>
-    <t>Domnick</t>
-  </si>
-  <si>
-    <t>Alfonso</t>
-  </si>
-  <si>
-    <t>adomnicku@mysql.com</t>
-  </si>
-  <si>
-    <t>Beneze</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>kbenezev@cmu.edu</t>
-  </si>
-  <si>
-    <t>Shewen</t>
-  </si>
-  <si>
-    <t>Artie</t>
-  </si>
-  <si>
-    <t>ashewenw@instagram.com</t>
-  </si>
-  <si>
-    <t>Arsmith</t>
-  </si>
-  <si>
-    <t>Ermengarde</t>
-  </si>
-  <si>
-    <t>earsmithx@freewebs.com</t>
-  </si>
-  <si>
-    <t>Rhyme</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>arhymey@themeforest.net</t>
-  </si>
-  <si>
-    <t>Beecham</t>
-  </si>
-  <si>
-    <t>Eydie</t>
-  </si>
-  <si>
-    <t>ebeechamz@creativecommons.org</t>
-  </si>
-  <si>
-    <t>Summerside</t>
-  </si>
-  <si>
-    <t>Kristos</t>
-  </si>
-  <si>
-    <t>ksummerside10@npr.org</t>
-  </si>
-  <si>
-    <t>Linham</t>
-  </si>
-  <si>
-    <t>Celina</t>
-  </si>
-  <si>
-    <t>clinham11@paypal.com</t>
-  </si>
-  <si>
-    <t>O'Rowane</t>
-  </si>
-  <si>
-    <t>Halley</t>
-  </si>
-  <si>
-    <t>horowane12@51.la</t>
-  </si>
-  <si>
-    <t>Cunde</t>
-  </si>
-  <si>
-    <t>Bailey</t>
-  </si>
-  <si>
-    <t>bcunde13@uol.com.br</t>
-  </si>
-  <si>
-    <t>Crehan</t>
-  </si>
-  <si>
-    <t>Thornie</t>
-  </si>
-  <si>
-    <t>tcrehan14@gov.uk</t>
-  </si>
-  <si>
-    <t>Lodeke</t>
-  </si>
-  <si>
-    <t>Jabez</t>
-  </si>
-  <si>
-    <t>jlodeke15@vk.com</t>
-  </si>
-  <si>
-    <t>Banthorpe</t>
-  </si>
-  <si>
-    <t>Calli</t>
-  </si>
-  <si>
-    <t>cbanthorpe16@dagondesign.com</t>
-  </si>
-  <si>
-    <t>Totaro</t>
-  </si>
-  <si>
-    <t>Carri</t>
-  </si>
-  <si>
-    <t>ctotaro17@pbs.org</t>
-  </si>
-  <si>
-    <t>Wessing</t>
-  </si>
-  <si>
-    <t>Astrix</t>
-  </si>
-  <si>
-    <t>awessing18@mysql.com</t>
-  </si>
-  <si>
-    <t>Alessandrelli</t>
-  </si>
-  <si>
-    <t>Nevil</t>
-  </si>
-  <si>
-    <t>nalessandrelli19@technorati.com</t>
-  </si>
-  <si>
-    <t>Purser</t>
-  </si>
-  <si>
-    <t>Zelig</t>
-  </si>
-  <si>
-    <t>zpurser1a@hao123.com</t>
-  </si>
-  <si>
-    <t>McKeighan</t>
-  </si>
-  <si>
-    <t>Kelila</t>
-  </si>
-  <si>
-    <t>kmckeighan1b@bloomberg.com</t>
-  </si>
-  <si>
-    <t>Rivenzon</t>
-  </si>
-  <si>
-    <t>Chrisse</t>
-  </si>
-  <si>
-    <t>crivenzon1c@163.com</t>
-  </si>
-  <si>
-    <t>Rockall</t>
-  </si>
-  <si>
-    <t>Arley</t>
-  </si>
-  <si>
-    <t>arockall1d@nationalgeographic.com</t>
-  </si>
-  <si>
     <t>Proin eu mi. Nulla ac enim. In tempor, turpis nec euismod scelerisque, quam turpis adipiscing lorem, vitae mattis nibh ligula nec sem. Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy. Integer non velit. Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi. Integer ac neque. Duis bibendum.</t>
   </si>
   <si>
@@ -823,12 +495,21 @@
   </si>
   <si>
     <t>MS</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>TitleId</t>
+  </si>
+  <si>
+    <t>FullName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -866,7 +547,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DC31A8A9-287D-4D6F-ABC4-F08A60369751}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1177,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E4914E-E364-492C-A418-E11389129FC0}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +869,7 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1223,6 +906,10 @@
         <f>CONCATENATE(E2, "_sd")</f>
         <v>Addiction_sd</v>
       </c>
+      <c r="D2" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D2,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
+      </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
@@ -1243,6 +930,10 @@
         <f t="shared" ref="C3:C45" si="1">CONCATENATE(E3, "_sd")</f>
         <v>Allergy_sd</v>
       </c>
+      <c r="D3" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D3,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
+      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
@@ -1263,6 +954,10 @@
         <f t="shared" si="1"/>
         <v>Autism_sd</v>
       </c>
+      <c r="D4" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D4,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -1283,6 +978,10 @@
         <f t="shared" si="1"/>
         <v>Buckeye Stories_sd</v>
       </c>
+      <c r="D5" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D5,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Lawton Basden, RN</v>
+      </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
@@ -1303,6 +1002,10 @@
         <f t="shared" si="1"/>
         <v>Burn and Wound_sd</v>
       </c>
+      <c r="D6" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D6,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
@@ -1323,6 +1026,10 @@
         <f t="shared" si="1"/>
         <v>Cancer_sd</v>
       </c>
+      <c r="D7" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D7,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
+      </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
@@ -1343,6 +1050,10 @@
         <f t="shared" si="1"/>
         <v>Cognitive and Memory Disorders_sd</v>
       </c>
+      <c r="D8" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D8,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
@@ -1363,6 +1074,10 @@
         <f t="shared" si="1"/>
         <v>Dermatology_sd</v>
       </c>
+      <c r="D9" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D9,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -1383,6 +1098,10 @@
         <f t="shared" si="1"/>
         <v>Diabetes_sd</v>
       </c>
+      <c r="D10" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D10,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
@@ -1403,6 +1122,10 @@
         <f t="shared" si="1"/>
         <v>Digestive Diseases_sd</v>
       </c>
+      <c r="D11" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D11,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
@@ -1423,6 +1146,10 @@
         <f t="shared" si="1"/>
         <v>Ear Nose and Throat_sd</v>
       </c>
+      <c r="D12" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D12,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
+      </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -1443,6 +1170,10 @@
         <f t="shared" si="1"/>
         <v>Emergency Medicine_sd</v>
       </c>
+      <c r="D13" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D13,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
+      </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
@@ -1463,6 +1194,10 @@
         <f t="shared" si="1"/>
         <v>Endocrinology_sd</v>
       </c>
+      <c r="D14" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D14,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
@@ -1483,6 +1218,10 @@
         <f t="shared" si="1"/>
         <v>Eye Care_sd</v>
       </c>
+      <c r="D15" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D15,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
+      </c>
       <c r="E15" t="s">
         <v>47</v>
       </c>
@@ -1503,6 +1242,10 @@
         <f t="shared" si="1"/>
         <v>Family_sd</v>
       </c>
+      <c r="D16" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D16,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
+      </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
@@ -1523,6 +1266,10 @@
         <f t="shared" si="1"/>
         <v>Fitness_sd</v>
       </c>
+      <c r="D17" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D17,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
@@ -1543,6 +1290,10 @@
         <f t="shared" si="1"/>
         <v>Geriatrics_sd</v>
       </c>
+      <c r="D18" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D18,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
@@ -1563,6 +1314,10 @@
         <f t="shared" si="1"/>
         <v>Health and Wellness_sd</v>
       </c>
+      <c r="D19" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D19,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
@@ -1583,6 +1338,10 @@
         <f>CONCATENATE(E20, "_sd_1")</f>
         <v>Health and Wellness_sd_1</v>
       </c>
+      <c r="D20" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D20,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
@@ -1603,6 +1362,10 @@
         <f t="shared" si="1"/>
         <v>Healthy Eating_sd</v>
       </c>
+      <c r="D21" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D21,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Lawton Basden, RN</v>
+      </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
@@ -1623,6 +1386,10 @@
         <f t="shared" si="1"/>
         <v>Hearing Loss_sd</v>
       </c>
+      <c r="D22" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D22,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
+      </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
@@ -1643,6 +1410,10 @@
         <f t="shared" si="1"/>
         <v>Heart and Vascular Health_sd</v>
       </c>
+      <c r="D23" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D23,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Lawton Basden, RN</v>
+      </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
@@ -1663,6 +1434,10 @@
         <f t="shared" si="1"/>
         <v>Infectious Diseases_sd</v>
       </c>
+      <c r="D24" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D24,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
@@ -1683,6 +1458,10 @@
         <f t="shared" si="1"/>
         <v>Integrative Medicine_sd</v>
       </c>
+      <c r="D25" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D25,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
+      </c>
       <c r="E25" t="s">
         <v>27</v>
       </c>
@@ -1703,6 +1482,10 @@
         <f t="shared" si="1"/>
         <v>Lung and Pulmonary_sd</v>
       </c>
+      <c r="D26" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D26,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
@@ -1723,6 +1506,10 @@
         <f t="shared" si="1"/>
         <v>Mental and Behavioral Health_sd</v>
       </c>
+      <c r="D27" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D27,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
@@ -1743,6 +1530,10 @@
         <f t="shared" si="1"/>
         <v>MyChart_sd</v>
       </c>
+      <c r="D28" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D28,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
@@ -1763,6 +1554,10 @@
         <f t="shared" si="1"/>
         <v>Neurological Institute_sd</v>
       </c>
+      <c r="D29" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D29,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
@@ -1783,6 +1578,10 @@
         <f t="shared" si="1"/>
         <v>Nursing_sd</v>
       </c>
+      <c r="D30" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D30,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
+      </c>
       <c r="E30" t="s">
         <v>31</v>
       </c>
@@ -1803,6 +1602,10 @@
         <f t="shared" si="1"/>
         <v>Orthopedics_sd</v>
       </c>
+      <c r="D31" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D31,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
@@ -1823,6 +1626,10 @@
         <f t="shared" si="1"/>
         <v>Physical Medicine and Rehabilitation_sd</v>
       </c>
+      <c r="D32" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D32,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
+      </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
@@ -1843,6 +1650,10 @@
         <f t="shared" si="1"/>
         <v>Plastic Surgery_sd</v>
       </c>
+      <c r="D33" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D33,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
@@ -1863,6 +1674,10 @@
         <f t="shared" si="1"/>
         <v>Primary Care_sd</v>
       </c>
+      <c r="D34" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D34,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E34" t="s">
         <v>35</v>
       </c>
@@ -1883,6 +1698,10 @@
         <f t="shared" si="1"/>
         <v>Research_sd</v>
       </c>
+      <c r="D35" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D35,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
+      </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
@@ -1903,6 +1722,10 @@
         <f t="shared" si="1"/>
         <v>Rheumatology_sd</v>
       </c>
+      <c r="D36" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D36,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
+      </c>
       <c r="E36" t="s">
         <v>37</v>
       </c>
@@ -1923,6 +1746,10 @@
         <f t="shared" si="1"/>
         <v>Sleep_sd</v>
       </c>
+      <c r="D37" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D37,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
+      </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
@@ -1943,6 +1770,10 @@
         <f t="shared" si="1"/>
         <v>Sports Medicine_sd</v>
       </c>
+      <c r="D38" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D38,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
+      </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
@@ -1963,6 +1794,10 @@
         <f t="shared" si="1"/>
         <v>Stress Management_sd</v>
       </c>
+      <c r="D39" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D39,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
@@ -1983,6 +1818,10 @@
         <f t="shared" si="1"/>
         <v>Tech and Innovation_sd</v>
       </c>
+      <c r="D40" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D40,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
@@ -2003,6 +1842,10 @@
         <f t="shared" si="1"/>
         <v>Transplant_sd</v>
       </c>
+      <c r="D41" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D41,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
       <c r="E41" t="s">
         <v>42</v>
       </c>
@@ -2023,6 +1866,10 @@
         <f t="shared" si="1"/>
         <v>Urology_sd</v>
       </c>
+      <c r="D42" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D42,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
+      </c>
       <c r="E42" t="s">
         <v>43</v>
       </c>
@@ -2043,6 +1890,10 @@
         <f t="shared" si="1"/>
         <v>Weight Management_sd</v>
       </c>
+      <c r="D43" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D43,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Lawton Basden, RN</v>
+      </c>
       <c r="E43" t="s">
         <v>44</v>
       </c>
@@ -2063,6 +1914,10 @@
         <f t="shared" si="1"/>
         <v>Women and Infants_sd</v>
       </c>
+      <c r="D44" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D44,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Lawton Basden, RN</v>
+      </c>
       <c r="E44" t="s">
         <v>45</v>
       </c>
@@ -2082,6 +1937,10 @@
       <c r="C45" t="str">
         <f t="shared" si="1"/>
         <v>Womens Health_sd</v>
+      </c>
+      <c r="D45" t="str">
+        <f ca="1">VLOOKUP(Blogs!$D45,Authors!$A$2:$F$16,6,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
       </c>
       <c r="E45" t="s">
         <v>46</v>
@@ -2099,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD98D479-EDA0-489A-9E07-8C27F6ED29A4}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,11 +2008,15 @@
         <f>CONCATENATE(E2, "_sd")</f>
         <v>Addiction_sd</v>
       </c>
+      <c r="D2">
+        <f ca="1">_xlfn.CEILING.MATH(RAND()*9+1)</f>
+        <v>9</v>
+      </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
         <v>43650.741631944446</v>
@@ -2172,11 +2035,15 @@
         <f t="shared" ref="C3:C45" si="1">CONCATENATE(E3, "_sd")</f>
         <v>Allergy_sd</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D45" ca="1" si="2">_xlfn.CEILING.MATH(RAND()*9+1)</f>
+        <v>7</v>
+      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1">
         <v>43983.622939814813</v>
@@ -2184,7 +2051,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A45" si="2">1+A3</f>
+        <f t="shared" ref="A4:A45" si="3">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
@@ -2194,12 +2061,16 @@
       <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>Autism_sd</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1">
         <v>44052.233229166668</v>
@@ -2207,7 +2078,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" t="str">
@@ -2217,12 +2088,16 @@
       <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>Buckeye Stories_sd</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1">
         <v>43953.700960648152</v>
@@ -2230,7 +2105,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" t="str">
@@ -2240,12 +2115,16 @@
       <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>Burn and Wound_sd</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1">
         <v>44503.872523148151</v>
@@ -2253,7 +2132,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" t="str">
@@ -2263,12 +2142,16 @@
       <c r="C7" t="str">
         <f t="shared" si="1"/>
         <v>Cancer_sd</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1">
         <v>44436.837754629632</v>
@@ -2276,7 +2159,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" t="str">
@@ -2286,12 +2169,16 @@
       <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v>Cognitive and Memory Disorders_sd</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1">
         <v>43883.556168981479</v>
@@ -2299,7 +2186,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" t="str">
@@ -2309,12 +2196,16 @@
       <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>Dermatology_sd</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1">
         <v>44342.035775462966</v>
@@ -2322,7 +2213,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" t="str">
@@ -2332,12 +2223,16 @@
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>Diabetes_sd</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1">
         <v>43981.434108796297</v>
@@ -2345,7 +2240,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" t="str">
@@ -2355,12 +2250,16 @@
       <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>Digestive Diseases_sd</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="G11" s="1">
         <v>44439.301180555558</v>
@@ -2368,7 +2267,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" t="str">
@@ -2378,12 +2277,16 @@
       <c r="C12" t="str">
         <f t="shared" si="1"/>
         <v>Ear Nose and Throat_sd</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="G12" s="1">
         <v>43839.48810185185</v>
@@ -2391,7 +2294,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" t="str">
@@ -2401,12 +2304,16 @@
       <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>Emergency Medicine_sd</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="G13" s="1">
         <v>44165.725937499999</v>
@@ -2414,7 +2321,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" t="str">
@@ -2424,12 +2331,16 @@
       <c r="C14" t="str">
         <f t="shared" si="1"/>
         <v>Endocrinology_sd</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="G14" s="1">
         <v>43789.461516203701</v>
@@ -2437,7 +2348,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" t="str">
@@ -2447,12 +2358,16 @@
       <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v>Eye Care_sd</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1">
         <v>44378.034907407404</v>
@@ -2460,7 +2375,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" t="str">
@@ -2470,12 +2385,16 @@
       <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v>Family_sd</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1">
         <v>43929.743101851855</v>
@@ -2483,7 +2402,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" t="str">
@@ -2493,12 +2412,16 @@
       <c r="C17" t="str">
         <f t="shared" si="1"/>
         <v>Fitness_sd</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1">
         <v>44082.219421296293</v>
@@ -2506,7 +2429,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" t="str">
@@ -2516,12 +2439,16 @@
       <c r="C18" t="str">
         <f t="shared" si="1"/>
         <v>Geriatrics_sd</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="G18" s="1">
         <v>44683.857743055552</v>
@@ -2529,7 +2456,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" t="str">
@@ -2540,11 +2467,15 @@
         <f t="shared" si="1"/>
         <v>Health and Wellness_sd</v>
       </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1">
         <v>43960.36509259259</v>
@@ -2552,7 +2483,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" t="str">
@@ -2563,11 +2494,15 @@
         <f>CONCATENATE(E20, "_sd_1")</f>
         <v>Health and Wellness_sd_1</v>
       </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1">
         <v>44440.085810185185</v>
@@ -2575,7 +2510,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" t="str">
@@ -2585,12 +2520,16 @@
       <c r="C21" t="str">
         <f t="shared" si="1"/>
         <v>Healthy Eating_sd</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="G21" s="1">
         <v>44413.808518518519</v>
@@ -2598,7 +2537,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" t="str">
@@ -2608,12 +2547,16 @@
       <c r="C22" t="str">
         <f t="shared" si="1"/>
         <v>Hearing Loss_sd</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1">
         <v>44515.085358796299</v>
@@ -2621,7 +2564,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" t="str">
@@ -2631,12 +2574,16 @@
       <c r="C23" t="str">
         <f t="shared" si="1"/>
         <v>Heart and Vascular Health_sd</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1">
         <v>43844.797719907408</v>
@@ -2644,7 +2591,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" t="str">
@@ -2654,12 +2601,16 @@
       <c r="C24" t="str">
         <f t="shared" si="1"/>
         <v>Infectious Diseases_sd</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="G24" s="1">
         <v>44647.730243055557</v>
@@ -2667,7 +2618,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" t="str">
@@ -2677,12 +2628,16 @@
       <c r="C25" t="str">
         <f t="shared" si="1"/>
         <v>Integrative Medicine_sd</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1">
         <v>43683.203715277778</v>
@@ -2690,7 +2645,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" t="str">
@@ -2700,12 +2655,16 @@
       <c r="C26" t="str">
         <f t="shared" si="1"/>
         <v>Lung and Pulmonary_sd</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="G26" s="1">
         <v>44711.372303240743</v>
@@ -2713,7 +2672,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" t="str">
@@ -2723,12 +2682,16 @@
       <c r="C27" t="str">
         <f t="shared" si="1"/>
         <v>Mental and Behavioral Health_sd</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="G27" s="1">
         <v>44537.602222222224</v>
@@ -2736,7 +2699,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" t="str">
@@ -2746,12 +2709,16 @@
       <c r="C28" t="str">
         <f t="shared" si="1"/>
         <v>MyChart_sd</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1">
         <v>43754.51321759259</v>
@@ -2759,7 +2726,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" t="str">
@@ -2769,12 +2736,16 @@
       <c r="C29" t="str">
         <f t="shared" si="1"/>
         <v>Neurological Institute_sd</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="G29" s="1">
         <v>44263.361319444448</v>
@@ -2782,7 +2753,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" t="str">
@@ -2792,12 +2763,16 @@
       <c r="C30" t="str">
         <f t="shared" si="1"/>
         <v>Nursing_sd</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="G30" s="1">
         <v>43713.270162037035</v>
@@ -2816,11 +2791,15 @@
         <f t="shared" si="1"/>
         <v>Orthopedics_sd</v>
       </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="G31" s="1">
         <v>43728.261180555557</v>
@@ -2828,7 +2807,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" t="str">
@@ -2838,12 +2817,16 @@
       <c r="C32" t="str">
         <f t="shared" si="1"/>
         <v>Physical Medicine and Rehabilitation_sd</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="G32" s="1">
         <v>44387.354062500002</v>
@@ -2851,7 +2834,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B33" t="str">
@@ -2861,12 +2844,16 @@
       <c r="C33" t="str">
         <f t="shared" si="1"/>
         <v>Plastic Surgery_sd</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="G33" s="1">
         <v>44707.080995370372</v>
@@ -2874,7 +2861,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B34" t="str">
@@ -2884,12 +2871,16 @@
       <c r="C34" t="str">
         <f t="shared" si="1"/>
         <v>Primary Care_sd</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="G34" s="1">
         <v>43892.60765046296</v>
@@ -2897,7 +2888,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B35" t="str">
@@ -2907,12 +2898,16 @@
       <c r="C35" t="str">
         <f t="shared" si="1"/>
         <v>Research_sd</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="G35" s="1">
         <v>43762.497800925928</v>
@@ -2920,7 +2915,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B36" t="str">
@@ -2930,12 +2925,16 @@
       <c r="C36" t="str">
         <f t="shared" si="1"/>
         <v>Rheumatology_sd</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1">
         <v>44580.349097222221</v>
@@ -2943,7 +2942,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B37" t="str">
@@ -2953,12 +2952,16 @@
       <c r="C37" t="str">
         <f t="shared" si="1"/>
         <v>Sleep_sd</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="G37" s="1">
         <v>43760.509976851848</v>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B38" t="str">
@@ -2976,12 +2979,16 @@
       <c r="C38" t="str">
         <f t="shared" si="1"/>
         <v>Sports Medicine_sd</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="G38" s="1">
         <v>44588.86146990741</v>
@@ -2989,7 +2996,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B39" t="str">
@@ -2999,12 +3006,16 @@
       <c r="C39" t="str">
         <f t="shared" si="1"/>
         <v>Stress Management_sd</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="G39" s="1">
         <v>44516.732303240744</v>
@@ -3012,7 +3023,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B40" t="str">
@@ -3022,12 +3033,16 @@
       <c r="C40" t="str">
         <f t="shared" si="1"/>
         <v>Tech and Innovation_sd</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="G40" s="1">
         <v>44313.694722222222</v>
@@ -3035,7 +3050,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B41" t="str">
@@ -3045,12 +3060,16 @@
       <c r="C41" t="str">
         <f t="shared" si="1"/>
         <v>Transplant_sd</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="G41" s="1">
         <v>44277.690486111111</v>
@@ -3058,7 +3077,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B42" t="str">
@@ -3068,12 +3087,16 @@
       <c r="C42" t="str">
         <f t="shared" si="1"/>
         <v>Urology_sd</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="G42" s="1">
         <v>43722.768078703702</v>
@@ -3081,7 +3104,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" t="str">
@@ -3091,12 +3114,16 @@
       <c r="C43" t="str">
         <f t="shared" si="1"/>
         <v>Weight Management_sd</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="G43" s="1">
         <v>44597.995046296295</v>
@@ -3104,7 +3131,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" t="str">
@@ -3114,12 +3141,16 @@
       <c r="C44" t="str">
         <f t="shared" si="1"/>
         <v>Women and Infants_sd</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="G44" s="1">
         <v>43947.205312500002</v>
@@ -3127,7 +3158,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" t="str">
@@ -3137,12 +3168,16 @@
       <c r="C45" t="str">
         <f t="shared" si="1"/>
         <v>Womens Health_sd</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="G45" s="1">
         <v>44576.97761574074</v>
@@ -3155,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34946C6-B7B2-4340-A169-16E0ADD794C5}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3203,7 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,13 +3217,13 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
         <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3197,16 +3232,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>253</v>
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="F2" t="str">
+        <f>C2 &amp; " " &amp; B2 &amp; ", " &amp; VLOOKUP($D2,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Auguste Boatwright, MD</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,28 +3254,42 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F3" t="str">
+        <f>C3 &amp; " " &amp; B3 &amp; ", " &amp; VLOOKUP($D3,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A51" si="0">1+A3</f>
+        <f t="shared" ref="A4:A16" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="F4" t="str">
+        <f>C4 &amp; " " &amp; B4 &amp; ", " &amp; VLOOKUP($D4,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,13 +3298,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="F5" t="str">
+        <f>C5 &amp; " " &amp; B5 &amp; ", " &amp; VLOOKUP($D5,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,13 +3320,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="F6" t="str">
+        <f>C6 &amp; " " &amp; B6 &amp; ", " &amp; VLOOKUP($D6,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,13 +3342,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="F7" t="str">
+        <f>C7 &amp; " " &amp; B7 &amp; ", " &amp; VLOOKUP($D7,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Lawton Basden, RN</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,13 +3364,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F8" t="str">
+        <f>C8 &amp; " " &amp; B8 &amp; ", " &amp; VLOOKUP($D8,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,13 +3386,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="F9" t="str">
+        <f>C9 &amp; " " &amp; B9 &amp; ", " &amp; VLOOKUP($D9,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3320,13 +3408,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="F10" t="str">
+        <f>C10 &amp; " " &amp; B10 &amp; ", " &amp; VLOOKUP($D10,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Emyle Britee, MS</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,13 +3430,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="F11" t="str">
+        <f>C11 &amp; " " &amp; B11 &amp; ", " &amp; VLOOKUP($D11,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,13 +3452,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="F12" t="str">
+        <f>C12 &amp; " " &amp; B12 &amp; ", " &amp; VLOOKUP($D12,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Sophia Michel, LISW</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,13 +3474,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F13" t="str">
+        <f>C13 &amp; " " &amp; B13 &amp; ", " &amp; VLOOKUP($D13,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Rhodie Shoesmith, D(ABMM)</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3380,13 +3496,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="F14" t="str">
+        <f>C14 &amp; " " &amp; B14 &amp; ", " &amp; VLOOKUP($D14,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Nonie Shields, DVM</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,13 +3518,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="F15" t="str">
+        <f>C15 &amp; " " &amp; B15 &amp; ", " &amp; VLOOKUP($D15,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Katina Tatlock, MD</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,538 +3540,20 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51" t="s">
-        <v>207</v>
-      </c>
-      <c r="E51" t="s">
-        <v>208</v>
+        <v>99</v>
+      </c>
+      <c r="F16" t="str">
+        <f>C16 &amp; " " &amp; B16 &amp; ", " &amp; VLOOKUP($D16,Titles!$A$2:$B$11,2,FALSE)</f>
+        <v>Don Ivan, MS</v>
       </c>
     </row>
   </sheetData>
@@ -3951,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B802DA53-C1DC-48A8-8ED8-C3684C54A4FB}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3968,48 +3580,91 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">1+A3</f>
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4018,40 +3673,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46024E0-E270-4EA3-8E01-389F46224159}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41EDBA-D45F-4E05-8513-C5A89667080E}">
   <dimension ref="A1:B44"/>
   <sheetViews>

--- a/docs/blog.csv.xlsx
+++ b/docs/blog.csv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alank\source\repos\blog-listing-application\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F052E-6E24-4C1A-A64B-9013EFFF98A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B115B1B-B96C-444B-A839-37EFC4C2B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{1DD7D00E-AB4E-489D-B05C-50AAA1CEC988}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DD7D00E-AB4E-489D-B05C-50AAA1CEC988}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="399">
   <si>
     <t>Id</t>
   </si>
@@ -203,9 +203,6 @@
     <t>TopicId</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>Boatwright</t>
   </si>
   <si>
@@ -341,138 +338,6 @@
     <t>divane@illinois.edu</t>
   </si>
   <si>
-    <t>Proin eu mi. Nulla ac enim. In tempor, turpis nec euismod scelerisque, quam turpis adipiscing lorem, vitae mattis nibh ligula nec sem. Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy. Integer non velit. Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi. Integer ac neque. Duis bibendum.</t>
-  </si>
-  <si>
-    <t>Donec dapibus. Duis at velit eu est congue elementum. In hac habitasse platea dictumst. Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante. Nulla justo. Aliquam quis turpis eget elit sodales scelerisque. Mauris sit amet eros.</t>
-  </si>
-  <si>
-    <t>Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh. Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est. Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros. Vestibulum ac est lacinia nisi venenatis tristique. Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue. Aliquam erat volutpat. In congue. Etiam justo.</t>
-  </si>
-  <si>
-    <t>Ut at dolor quis odio consequat varius.</t>
-  </si>
-  <si>
-    <t>Cras in purus eu magna vulputate luctus. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Vivamus vestibulum sagittis sapien. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Etiam vel augue. Vestibulum rutrum rutrum neque. Aenean auctor gravida sem.</t>
-  </si>
-  <si>
-    <t>Pellentesque viverra pede ac diam.</t>
-  </si>
-  <si>
-    <t>Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue. Aliquam erat volutpat.</t>
-  </si>
-  <si>
-    <t>Vestibulum quam sapien, varius ut, blandit non, interdum in, ante. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Duis faucibus accumsan odio.</t>
-  </si>
-  <si>
-    <t>Mauris sit amet eros. Suspendisse accumsan tortor quis turpis. Sed ante. Vivamus tortor. Duis mattis egestas metus. Aenean fermentum. Donec ut mauris eget massa tempor convallis. Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh. Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est.</t>
-  </si>
-  <si>
-    <t>Maecenas ut massa quis augue luctus tincidunt.</t>
-  </si>
-  <si>
-    <t>Maecenas leo odio, condimentum id, luctus nec, molestie sed, justo. Pellentesque viverra pede ac diam. Cras pellentesque volutpat dui. Maecenas tristique, est et tempus semper, est quam pharetra magna, ac consequat metus sapien ut nunc. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Mauris viverra diam vitae quam. Suspendisse potenti. Nullam porttitor lacus at turpis. Donec posuere metus vitae ipsum. Aliquam non mauris. Morbi non lectus.</t>
-  </si>
-  <si>
-    <t>Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est. Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros. Vestibulum ac est lacinia nisi venenatis tristique. Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue.</t>
-  </si>
-  <si>
-    <t>Ut at dolor quis odio consequat varius. Integer ac leo. Pellentesque ultrices mattis odio.</t>
-  </si>
-  <si>
-    <t>Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo. Maecenas pulvinar lobortis est. Phasellus sit amet erat. Nulla tempus. Vivamus in felis eu sapien cursus vestibulum. Proin eu mi.</t>
-  </si>
-  <si>
-    <t>Curabitur convallis. Duis consequat dui nec nisi volutpat eleifend. Donec ut dolor. Morbi vel lectus in quam fringilla rhoncus. Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis. Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci. Mauris lacinia sapien quis libero. Nullam sit amet turpis elementum ligula vehicula consequat. Morbi a ipsum.</t>
-  </si>
-  <si>
-    <t>Phasellus in felis. Donec semper sapien a libero. Nam dui. Proin leo odio, porttitor id, consequat in, consequat ut, nulla. Sed accumsan felis. Ut at dolor quis odio consequat varius. Integer ac leo.</t>
-  </si>
-  <si>
-    <t>Praesent id massa id nisl venenatis lacinia. Aenean sit amet justo. Morbi ut odio. Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo. In blandit ultrices enim. Lorem ipsum dolor sit amet, consectetuer adipiscing elit.</t>
-  </si>
-  <si>
-    <t>Vivamus tortor. Duis mattis egestas metus. Aenean fermentum. Donec ut mauris eget massa tempor convallis.</t>
-  </si>
-  <si>
-    <t>Morbi non lectus. Aliquam sit amet diam in magna bibendum imperdiet. Nullam orci pede, venenatis non, sodales sed, tincidunt eu, felis. Fusce posuere felis sed lacus. Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl. Nunc rhoncus dui vel sem. Sed sagittis. Nam congue, risus semper porta volutpat, quam pede lobortis ligula, sit amet eleifend pede libero quis orci.</t>
-  </si>
-  <si>
-    <t>Nullam orci pede, venenatis non, sodales sed, tincidunt eu, felis. Fusce posuere felis sed lacus. Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl. Nunc rhoncus dui vel sem. Sed sagittis. Nam congue, risus semper porta volutpat, quam pede lobortis ligula, sit amet eleifend pede libero quis orci.</t>
-  </si>
-  <si>
-    <t>Fusce consequat. Nulla nisl. Nunc nisl. Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus. Duis at velit eu est congue elementum.</t>
-  </si>
-  <si>
-    <t>Pellentesque eget nunc. Donec quis orci eget orci vehicula condimentum. Curabitur in libero ut massa volutpat convallis. Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo. Maecenas pulvinar lobortis est. Phasellus sit amet erat. Nulla tempus.</t>
-  </si>
-  <si>
-    <t>Quisque porta volutpat erat. Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus. Phasellus in felis. Donec semper sapien a libero. Nam dui.</t>
-  </si>
-  <si>
-    <t>Morbi non quam nec dui luctus rutrum. Nulla tellus. In sagittis dui vel nisl.</t>
-  </si>
-  <si>
-    <t>Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo. Maecenas pulvinar lobortis est. Phasellus sit amet erat.</t>
-  </si>
-  <si>
-    <t>Phasellus sit amet erat.</t>
-  </si>
-  <si>
-    <t>Proin eu mi. Nulla ac enim. In tempor, turpis nec euismod scelerisque, quam turpis adipiscing lorem, vitae mattis nibh ligula nec sem. Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy. Integer non velit. Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi.</t>
-  </si>
-  <si>
-    <t>Morbi vel lectus in quam fringilla rhoncus. Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis. Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci. Mauris lacinia sapien quis libero. Nullam sit amet turpis elementum ligula vehicula consequat. Morbi a ipsum. Integer a nibh. In quis justo. Maecenas rhoncus aliquam lacus. Morbi quis tortor id nulla ultrices aliquet.</t>
-  </si>
-  <si>
-    <t>Morbi quis tortor id nulla ultrices aliquet. Maecenas leo odio, condimentum id, luctus nec, molestie sed, justo. Pellentesque viverra pede ac diam. Cras pellentesque volutpat dui. Maecenas tristique, est et tempus semper, est quam pharetra magna, ac consequat metus sapien ut nunc. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Mauris viverra diam vitae quam. Suspendisse potenti.</t>
-  </si>
-  <si>
-    <t>Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Etiam vel augue. Vestibulum rutrum rutrum neque.</t>
-  </si>
-  <si>
-    <t>Morbi ut odio. Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo. In blandit ultrices enim. Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Proin interdum mauris non ligula pellentesque ultrices. Phasellus id sapien in sapien iaculis congue. Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl. Aenean lectus. Pellentesque eget nunc.</t>
-  </si>
-  <si>
-    <t>Mauris ullamcorper purus sit amet nulla.</t>
-  </si>
-  <si>
-    <t>Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est. Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros.</t>
-  </si>
-  <si>
-    <t>Proin interdum mauris non ligula pellentesque ultrices. Phasellus id sapien in sapien iaculis congue. Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl. Aenean lectus. Pellentesque eget nunc. Donec quis orci eget orci vehicula condimentum. Curabitur in libero ut massa volutpat convallis. Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo. Maecenas pulvinar lobortis est. Phasellus sit amet erat.</t>
-  </si>
-  <si>
-    <t>Pellentesque eget nunc. Donec quis orci eget orci vehicula condimentum.</t>
-  </si>
-  <si>
-    <t>Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est. Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros. Vestibulum ac est lacinia nisi venenatis tristique. Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue. Aliquam erat volutpat. In congue.</t>
-  </si>
-  <si>
-    <t>Integer non velit.</t>
-  </si>
-  <si>
-    <t>Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl.</t>
-  </si>
-  <si>
-    <t>Nulla nisl. Nunc nisl. Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus. Duis at velit eu est congue elementum. In hac habitasse platea dictumst. Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante. Nulla justo. Aliquam quis turpis eget elit sodales scelerisque.</t>
-  </si>
-  <si>
-    <t>Morbi porttitor lorem id ligula. Suspendisse ornare consequat lectus. In est risus, auctor sed, tristique in, tempus sit amet, sem. Fusce consequat. Nulla nisl. Nunc nisl. Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus.</t>
-  </si>
-  <si>
-    <t>Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh. Quisque id justo sit amet sapien dignissim vestibulum.</t>
-  </si>
-  <si>
-    <t>Curabitur in libero ut massa volutpat convallis. Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo.</t>
-  </si>
-  <si>
-    <t>Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh. Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est.</t>
-  </si>
-  <si>
-    <t>In congue. Etiam justo. Etiam pretium iaculis justo. In hac habitasse platea dictumst. Etiam faucibus cursus urna. Ut tellus. Nulla ut erat id mauris vulputate elementum. Nullam varius. Nulla facilisi.</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
@@ -504,6 +369,873 @@
   </si>
   <si>
     <t>FullName</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>6be5e1bd-c251-43a6-b15d-8b2ef186a56a</t>
+  </si>
+  <si>
+    <t>f52b02de-8f21-4233-972c-af3cf16b02bb</t>
+  </si>
+  <si>
+    <t>bf675ca0-7123-4cab-99da-157cceadde66</t>
+  </si>
+  <si>
+    <t>93573c95-ef0e-436f-bf9d-406a4c18cd02</t>
+  </si>
+  <si>
+    <t>c1d9145a-021d-4e88-aab3-2d42e57050ed</t>
+  </si>
+  <si>
+    <t>82091cb0-32e6-4186-8876-f87592839c4d</t>
+  </si>
+  <si>
+    <t>3faf091c-f56b-47fc-a14c-fb386a46d797</t>
+  </si>
+  <si>
+    <t>7bb7e166-65e0-4055-9f81-cd0b3a24b1d6</t>
+  </si>
+  <si>
+    <t>7ae2a089-5564-4932-8a06-56ae7c0d5e6a</t>
+  </si>
+  <si>
+    <t>6d3549a5-5278-494b-a4ec-c5b52d10b7bf</t>
+  </si>
+  <si>
+    <t>348f1299-70f9-451f-9d4f-a5e542e8f9b7</t>
+  </si>
+  <si>
+    <t>1367c096-96d7-4c5f-92a8-457671dc9a4d</t>
+  </si>
+  <si>
+    <t>a7fd0ddf-7cfb-4a55-89d9-33f675d767c5</t>
+  </si>
+  <si>
+    <t>36d61360-6c62-4649-bc5c-08495f4de6ea</t>
+  </si>
+  <si>
+    <t>76f2a8f5-0f4b-412d-9bf1-8635d9f88b48</t>
+  </si>
+  <si>
+    <t>22ba970d-a33b-489d-a110-d427cc1fa95d</t>
+  </si>
+  <si>
+    <t>71650815-15c3-4d7c-86df-8312ab3a834f</t>
+  </si>
+  <si>
+    <t>19e1ba35-6a0c-4a8c-afad-2640f452a576</t>
+  </si>
+  <si>
+    <t>66dfc862-0bc6-4fbf-8766-bbaf9b159df8</t>
+  </si>
+  <si>
+    <t>2add1231-66a2-46c9-850a-b910febe1e1e</t>
+  </si>
+  <si>
+    <t>de0c8e36-f17f-4c69-8d24-57a139b2da4c</t>
+  </si>
+  <si>
+    <t>bdf7223a-15c4-47ec-9d78-6bd8bb98e39d</t>
+  </si>
+  <si>
+    <t>8a7046c9-baac-4851-823b-9ed3582d6e3d</t>
+  </si>
+  <si>
+    <t>50bac8b4-bb8d-437e-b4e8-9ea9f6b89854</t>
+  </si>
+  <si>
+    <t>ff9db129-1bbc-4c95-86ef-fae8c20dacbe</t>
+  </si>
+  <si>
+    <t>eec9a9e0-fb28-4c8b-95e7-5acca2bfe0b3</t>
+  </si>
+  <si>
+    <t>dd322c4d-8ac1-4ccb-a9cf-7a6e8bb32fd7</t>
+  </si>
+  <si>
+    <t>0d73e652-9bc2-4c59-94d0-4b3f18549b77</t>
+  </si>
+  <si>
+    <t>353ed493-6c5a-415c-8377-b4701468beec</t>
+  </si>
+  <si>
+    <t>504a3ed8-0551-4ccf-bae9-0cbf9391719d</t>
+  </si>
+  <si>
+    <t>2d2c2793-7678-47b2-9924-e2f1390294ce</t>
+  </si>
+  <si>
+    <t>fb7fff13-eec9-4d4d-a8c1-052ed29e8995</t>
+  </si>
+  <si>
+    <t>b831b675-07a5-4921-a22b-5ea3f6887311</t>
+  </si>
+  <si>
+    <t>45be8f53-1db6-4755-8eee-5b3998e884aa</t>
+  </si>
+  <si>
+    <t>60dd0363-e415-40e7-9df4-81ae29882a4e</t>
+  </si>
+  <si>
+    <t>4a7927ba-8f5b-4995-9feb-b1d00d7d75f9</t>
+  </si>
+  <si>
+    <t>c5c74847-4242-4050-9645-36707390aa04</t>
+  </si>
+  <si>
+    <t>6c63389e-9f84-434f-8f7f-5c0de186c0fb</t>
+  </si>
+  <si>
+    <t>50aa37b0-d412-4e24-a1d5-9b84565ed330</t>
+  </si>
+  <si>
+    <t>731fd3a7-2b34-4f7d-9bb9-6062a5166c73</t>
+  </si>
+  <si>
+    <t>f5ffb239-0e08-4c4e-b9cb-abc34f6a8bba</t>
+  </si>
+  <si>
+    <t>82972a69-60bc-4b31-93d7-a90882267c3f</t>
+  </si>
+  <si>
+    <t>60150168-f1fc-48c0-ac63-bfeb7091008d</t>
+  </si>
+  <si>
+    <t>f14b85da-d440-4387-89fa-f33a8ca4d922</t>
+  </si>
+  <si>
+    <t>403f64d4-2aa0-43bd-815d-df3519e5ecd0</t>
+  </si>
+  <si>
+    <t>bbe05b43-6e19-4815-a36d-4d97fbaff657</t>
+  </si>
+  <si>
+    <t>1ffe215b-806b-4b3a-91b7-375d1d16357f</t>
+  </si>
+  <si>
+    <t>5e64c0e8-543c-472a-a2d0-5e713fb5f460</t>
+  </si>
+  <si>
+    <t>0ebb0f7b-f54c-4347-a2b1-ccce6e2199d1</t>
+  </si>
+  <si>
+    <t>e139092b-ce20-40fc-a07f-9d93206c9a98</t>
+  </si>
+  <si>
+    <t>4fb24050-8c24-4f71-9417-889d27780c92</t>
+  </si>
+  <si>
+    <t>6afa9ced-77cd-4507-9976-ee29df565304</t>
+  </si>
+  <si>
+    <t>54825fd7-dfa8-4755-ab0c-d1a8c7ffc231</t>
+  </si>
+  <si>
+    <t>0829570f-ce43-489c-97bc-b34ff1d56c2a</t>
+  </si>
+  <si>
+    <t>564df652-4040-48cb-a15e-a5e5c38a3a52</t>
+  </si>
+  <si>
+    <t>e73d73d4-e40d-4db4-a9d7-dcf9915a7c6c</t>
+  </si>
+  <si>
+    <t>67ccee95-07bd-46aa-8c74-49604fb191af</t>
+  </si>
+  <si>
+    <t>7a505dae-a868-40f8-9bac-34375586b25e</t>
+  </si>
+  <si>
+    <t>98467eee-19e2-4129-82e3-902652262173</t>
+  </si>
+  <si>
+    <t>a14b8e7d-421e-4b50-957d-2905c03eca1d</t>
+  </si>
+  <si>
+    <t>aae30670-53e1-4160-9254-9650c11255d3</t>
+  </si>
+  <si>
+    <t>12e50f79-702e-4114-9cdd-fd4536feb1e3</t>
+  </si>
+  <si>
+    <t>a0a2cce2-1860-40a1-8b71-2350f06a74a5</t>
+  </si>
+  <si>
+    <t>d0b74c67-9fae-4fe4-b8f8-57470704ebe1</t>
+  </si>
+  <si>
+    <t>9c659290-71bf-43c2-b238-6ee2241110a9</t>
+  </si>
+  <si>
+    <t>5bb43aeb-21ec-42f9-bfa6-fcd33e52f690</t>
+  </si>
+  <si>
+    <t>db394dae-1273-41ec-afd0-9cf7830e6adb</t>
+  </si>
+  <si>
+    <t>4e27d181-d0c6-4013-be7c-170f0d2327ec</t>
+  </si>
+  <si>
+    <t>9f259bc0-e8a6-49f4-9703-22cfdbfa29d3</t>
+  </si>
+  <si>
+    <t>67a02f95-cfc1-4b75-8823-8303ce0b43cc</t>
+  </si>
+  <si>
+    <t>96903f9a-8847-444d-88f1-4054a2119b2f</t>
+  </si>
+  <si>
+    <t>b9ca14ad-d164-4c94-8f0b-d4300128b6c2</t>
+  </si>
+  <si>
+    <t>d40e0c74-0ebd-41cf-b7bc-7036704776a2</t>
+  </si>
+  <si>
+    <t>c706aedd-ef5c-4966-a88c-b5aa9cddf7fd</t>
+  </si>
+  <si>
+    <t>7b658372-34b2-49d4-8943-b7625a9f4e16</t>
+  </si>
+  <si>
+    <t>acf315a1-66ca-448f-ac2e-fa5c080385b5</t>
+  </si>
+  <si>
+    <t>e3f86760-51d3-44b7-a5ee-19e7550c5d33</t>
+  </si>
+  <si>
+    <t>588db99b-7864-499a-ad29-fc7f1fb6e0c9</t>
+  </si>
+  <si>
+    <t>4431d66c-8b29-4a97-9e97-587c6af8600a</t>
+  </si>
+  <si>
+    <t>9d59740c-e983-44c2-9ba0-0c488a44d0a7</t>
+  </si>
+  <si>
+    <t>4dd59fe5-aff1-4399-a5b6-98af53ee6ad6</t>
+  </si>
+  <si>
+    <t>5e3dcb37-f9c4-4df9-a0d2-32af61afe2d2</t>
+  </si>
+  <si>
+    <t>f395bfa1-c44c-4096-bbb5-bbd6a1ce0375</t>
+  </si>
+  <si>
+    <t>7f9f5c67-976b-485f-aa26-cc04c73f0e9c</t>
+  </si>
+  <si>
+    <t>4196f210-8705-48bb-a16f-c2391c1dd427</t>
+  </si>
+  <si>
+    <t>9d69cf59-4914-4e97-85b5-5bea2ebe7230</t>
+  </si>
+  <si>
+    <t>2d87c334-77b2-4b10-ae09-eb492ff2b1e3</t>
+  </si>
+  <si>
+    <t>b1d900c8-905e-4549-8346-cf4a4fa79e15</t>
+  </si>
+  <si>
+    <t>7fed1b2c-0045-486e-b5db-30ae8f3f4a87</t>
+  </si>
+  <si>
+    <t>7dafd5ab-c9ef-4717-8f61-8f2cfd81c0ce</t>
+  </si>
+  <si>
+    <t>86c6a268-61a9-40c3-b551-fc596f3a2976</t>
+  </si>
+  <si>
+    <t>7effb3a8-03d3-4b06-8f69-abd5800657f1</t>
+  </si>
+  <si>
+    <t>241d3f9b-7394-4683-951c-287a8c592747</t>
+  </si>
+  <si>
+    <t>3c545f7a-cfc5-4b8b-9d64-e9ebe2ebe70d</t>
+  </si>
+  <si>
+    <t>38d111c1-8795-4390-b60d-e7bd11172394</t>
+  </si>
+  <si>
+    <t>22991626-b3cc-450e-8478-691c87790646</t>
+  </si>
+  <si>
+    <t>9d50e4f9-be3c-4392-851b-4247b373f03d</t>
+  </si>
+  <si>
+    <t>BlogId</t>
+  </si>
+  <si>
+    <t>dfd12af6-6d4a-4f88-a9b6-f22081a830eb</t>
+  </si>
+  <si>
+    <t>065387bd-9ee8-49ed-ba7b-7fe054f5b97a</t>
+  </si>
+  <si>
+    <t>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</t>
+  </si>
+  <si>
+    <t>a7cc68b0-0148-49d7-9bfd-784d30dc563f</t>
+  </si>
+  <si>
+    <t>cb70de16-1b9f-4c03-9745-7bc2f67fe8a3</t>
+  </si>
+  <si>
+    <t>ccbfec33-bb64-44f5-87fe-dec4c026ce7e</t>
+  </si>
+  <si>
+    <t>1e77683a-4b41-4209-be2b-504ddc951b2a</t>
+  </si>
+  <si>
+    <t>42f6cd04-bd57-4b4e-b1ec-94fe07d3c8c4</t>
+  </si>
+  <si>
+    <t>5da22d78-8a8c-4b75-bbac-240d99860964</t>
+  </si>
+  <si>
+    <t>80db5fe9-406d-4249-802e-dec26f80a883</t>
+  </si>
+  <si>
+    <t>5b33a7c2-5951-4212-b90c-0f23f0d5378c</t>
+  </si>
+  <si>
+    <t>b81da052-32da-488f-b1c2-d2f7e0c1f9fb</t>
+  </si>
+  <si>
+    <t>c068d67f-3ff1-47c5-930a-35dd6de10806</t>
+  </si>
+  <si>
+    <t>8560e12a-2a39-44e2-ad78-12f518d017f1</t>
+  </si>
+  <si>
+    <t>a61acef7-4385-498a-93ba-f67d6b6a23c0</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/249x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/114x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/224x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/197x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/211x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/233x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/114x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/181x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/220x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/241x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/241x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/123x100.png/dddddd/000000</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/131x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/166x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/143x100.png/dddddd/000000</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/160x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/145x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/120x100.png/dddddd/000000</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/194x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/104x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/118x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/235x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/118x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/184x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/113x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/155x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/139x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/150x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/206x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/167x100.png/dddddd/000000</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/130x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/128x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/250x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/104x100.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/244x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/140x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/142x100.png/dddddd/000000</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/199x100.png/dddddd/000000</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/219x100.png/ff4444/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/110x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/242x100.png/dddddd/000000</t>
+  </si>
+  <si>
+    <t>http://dummyimage.com/214x100.png/5fa2dd/ffffff</t>
+  </si>
+  <si>
+    <t>Addiction_title</t>
+  </si>
+  <si>
+    <t>Addiction_sd</t>
+  </si>
+  <si>
+    <t>Allergy_title</t>
+  </si>
+  <si>
+    <t>Allergy_sd</t>
+  </si>
+  <si>
+    <t>Autism_title</t>
+  </si>
+  <si>
+    <t>Autism_sd</t>
+  </si>
+  <si>
+    <t>Buckeye Stories_title</t>
+  </si>
+  <si>
+    <t>Buckeye Stories_sd</t>
+  </si>
+  <si>
+    <t>Burn and Wound_title</t>
+  </si>
+  <si>
+    <t>Burn and Wound_sd</t>
+  </si>
+  <si>
+    <t>Cancer_title</t>
+  </si>
+  <si>
+    <t>Cancer_sd</t>
+  </si>
+  <si>
+    <t>Cognitive and Memory Disorders_title</t>
+  </si>
+  <si>
+    <t>Cognitive and Memory Disorders_sd</t>
+  </si>
+  <si>
+    <t>Dermatology_title</t>
+  </si>
+  <si>
+    <t>Dermatology_sd</t>
+  </si>
+  <si>
+    <t>Diabetes_title</t>
+  </si>
+  <si>
+    <t>Diabetes_sd</t>
+  </si>
+  <si>
+    <t>Digestive Diseases_title</t>
+  </si>
+  <si>
+    <t>Digestive Diseases_sd</t>
+  </si>
+  <si>
+    <t>Ear Nose and Throat_title</t>
+  </si>
+  <si>
+    <t>Ear Nose and Throat_sd</t>
+  </si>
+  <si>
+    <t>Emergency Medicine_title</t>
+  </si>
+  <si>
+    <t>Emergency Medicine_sd</t>
+  </si>
+  <si>
+    <t>Endocrinology_title</t>
+  </si>
+  <si>
+    <t>Endocrinology_sd</t>
+  </si>
+  <si>
+    <t>Eye Care_title</t>
+  </si>
+  <si>
+    <t>Eye Care_sd</t>
+  </si>
+  <si>
+    <t>Family_title</t>
+  </si>
+  <si>
+    <t>Family_sd</t>
+  </si>
+  <si>
+    <t>Fitness_title</t>
+  </si>
+  <si>
+    <t>Fitness_sd</t>
+  </si>
+  <si>
+    <t>Geriatrics_title</t>
+  </si>
+  <si>
+    <t>Geriatrics_sd</t>
+  </si>
+  <si>
+    <t>Health and Wellness_title</t>
+  </si>
+  <si>
+    <t>Health and Wellness_sd</t>
+  </si>
+  <si>
+    <t>Health and Wellness_title_1</t>
+  </si>
+  <si>
+    <t>Health and Wellness_sd_1</t>
+  </si>
+  <si>
+    <t>Healthy Eating_title</t>
+  </si>
+  <si>
+    <t>Healthy Eating_sd</t>
+  </si>
+  <si>
+    <t>Hearing Loss_title</t>
+  </si>
+  <si>
+    <t>Hearing Loss_sd</t>
+  </si>
+  <si>
+    <t>Heart and Vascular Health_title</t>
+  </si>
+  <si>
+    <t>Heart and Vascular Health_sd</t>
+  </si>
+  <si>
+    <t>Infectious Diseases_title</t>
+  </si>
+  <si>
+    <t>Infectious Diseases_sd</t>
+  </si>
+  <si>
+    <t>Integrative Medicine_title</t>
+  </si>
+  <si>
+    <t>Integrative Medicine_sd</t>
+  </si>
+  <si>
+    <t>Lung and Pulmonary_title</t>
+  </si>
+  <si>
+    <t>Lung and Pulmonary_sd</t>
+  </si>
+  <si>
+    <t>Mental and Behavioral Health_title</t>
+  </si>
+  <si>
+    <t>Mental and Behavioral Health_sd</t>
+  </si>
+  <si>
+    <t>MyChart_title</t>
+  </si>
+  <si>
+    <t>MyChart_sd</t>
+  </si>
+  <si>
+    <t>Neurological Institute_title</t>
+  </si>
+  <si>
+    <t>Neurological Institute_sd</t>
+  </si>
+  <si>
+    <t>Nursing_title</t>
+  </si>
+  <si>
+    <t>Nursing_sd</t>
+  </si>
+  <si>
+    <t>Orthopedics_title</t>
+  </si>
+  <si>
+    <t>Orthopedics_sd</t>
+  </si>
+  <si>
+    <t>Physical Medicine and Rehabilitation_title</t>
+  </si>
+  <si>
+    <t>Physical Medicine and Rehabilitation_sd</t>
+  </si>
+  <si>
+    <t>Plastic Surgery_title</t>
+  </si>
+  <si>
+    <t>Plastic Surgery_sd</t>
+  </si>
+  <si>
+    <t>Primary Care_title</t>
+  </si>
+  <si>
+    <t>Primary Care_sd</t>
+  </si>
+  <si>
+    <t>Research_title</t>
+  </si>
+  <si>
+    <t>Research_sd</t>
+  </si>
+  <si>
+    <t>Rheumatology_title</t>
+  </si>
+  <si>
+    <t>Rheumatology_sd</t>
+  </si>
+  <si>
+    <t>Sleep_title</t>
+  </si>
+  <si>
+    <t>Sleep_sd</t>
+  </si>
+  <si>
+    <t>Sports Medicine_title</t>
+  </si>
+  <si>
+    <t>Sports Medicine_sd</t>
+  </si>
+  <si>
+    <t>Stress Management_title</t>
+  </si>
+  <si>
+    <t>Stress Management_sd</t>
+  </si>
+  <si>
+    <t>Tech and Innovation_title</t>
+  </si>
+  <si>
+    <t>Tech and Innovation_sd</t>
+  </si>
+  <si>
+    <t>Transplant_title</t>
+  </si>
+  <si>
+    <t>Transplant_sd</t>
+  </si>
+  <si>
+    <t>Urology_title</t>
+  </si>
+  <si>
+    <t>Urology_sd</t>
+  </si>
+  <si>
+    <t>Weight Management_title</t>
+  </si>
+  <si>
+    <t>Weight Management_sd</t>
+  </si>
+  <si>
+    <t>Women and Infants_title</t>
+  </si>
+  <si>
+    <t>Women and Infants_sd</t>
+  </si>
+  <si>
+    <t>Womens Health_title</t>
+  </si>
+  <si>
+    <t>Womens Health_sd</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>vivamus vestibulum sagittis sapien cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus etiam vel augue vestibulum rutrum rutrum neque aenean auctor gravida sem praesent id massa id nisl venenatis lacinia aenean sit amet justo morbi ut odio cras mi pede malesuada in imperdiet et commodo vulputate justo in blandit ultrices enim lorem ipsum dolor sit</t>
+  </si>
+  <si>
+    <t>ornare imperdiet sapien urna pretium nisl ut volutpat sapien arcu sed augue aliquam erat volutpat in congue etiam justo etiam pretium iaculis justo in hac habitasse platea dictumst etiam faucibus cursus urna ut tellus nulla ut erat id mauris vulputate elementum nullam varius nulla facilisi cras non velit nec nisi vulputate nonummy maecenas tincidunt lacus at velit vivamus vel nulla</t>
+  </si>
+  <si>
+    <t>a ipsum integer a nibh in quis justo maecenas rhoncus aliquam lacus morbi quis tortor id nulla ultrices aliquet maecenas leo odio condimentum id luctus nec molestie sed justo pellentesque viverra pede ac diam cras pellentesque volutpat dui maecenas tristique est et tempus semper est quam pharetra magna ac consequat metus sapien ut nunc vestibulum ante ipsum primis</t>
+  </si>
+  <si>
+    <t>consectetuer adipiscing elit proin interdum mauris non ligula pellentesque ultrices phasellus id sapien in sapien iaculis congue vivamus metus arcu adipiscing molestie hendrerit at vulputate vitae nisl aenean lectus pellentesque eget nunc donec quis orci eget orci vehicula condimentum curabitur in libero ut massa volutpat convallis morbi odio odio elementum eu interdum eu tincidunt in leo maecenas pulvinar lobortis est phasellus sit amet erat nulla tempus vivamus in felis eu sapien cursus vestibulum proin eu mi nulla ac enim in tempor turpis nec euismod scelerisque quam</t>
+  </si>
+  <si>
+    <t>accumsan tellus nisi eu orci mauris lacinia sapien quis libero nullam sit amet turpis elementum ligula vehicula consequat morbi a ipsum integer a nibh in quis justo maecenas rhoncus aliquam lacus morbi quis tortor id nulla ultrices aliquet maecenas leo odio condimentum id luctus nec molestie sed justo pellentesque viverra pede ac diam cras pellentesque volutpat dui maecenas tristique est et tempus semper est quam pharetra magna ac consequat metus sapien ut nunc vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae mauris viverra diam vitae quam suspendisse potenti nullam porttitor lacus at</t>
+  </si>
+  <si>
+    <t>lobortis sapien sapien non mi integer ac neque duis bibendum morbi non quam nec dui luctus rutrum nulla tellus in sagittis dui vel nisl duis ac nibh fusce lacus purus</t>
+  </si>
+  <si>
+    <t>tellus in sagittis dui vel nisl duis ac nibh fusce lacus purus aliquet at feugiat non pretium quis lectus suspendisse potenti in eleifend quam a odio in hac habitasse platea dictumst maecenas ut massa quis augue luctus tincidunt nulla mollis molestie lorem quisque ut erat curabitur gravida nisi at nibh in hac habitasse platea dictumst aliquam augue quam sollicitudin vitae consectetuer eget rutrum at lorem integer tincidunt ante vel ipsum praesent blandit lacinia erat vestibulum sed magna at nunc commodo placerat praesent blandit nam nulla integer pede justo lacinia</t>
+  </si>
+  <si>
+    <t>nec molestie sed justo pellentesque viverra pede ac diam cras pellentesque volutpat dui maecenas tristique est et tempus semper est quam pharetra magna ac consequat metus sapien ut nunc vestibulum ante ipsum primis in faucibus</t>
+  </si>
+  <si>
+    <t>in quam fringilla rhoncus mauris enim leo rhoncus sed vestibulum sit amet cursus id turpis integer aliquet massa id lobortis convallis tortor risus dapibus augue vel accumsan tellus nisi eu orci mauris</t>
+  </si>
+  <si>
+    <t>proin at turpis a pede posuere nonummy integer non velit donec diam neque vestibulum eget vulputate ut ultrices vel augue vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae donec pharetra magna vestibulum aliquet ultrices erat tortor sollicitudin mi sit amet lobortis sapien sapien non mi integer ac neque duis bibendum morbi non quam nec dui luctus rutrum nulla tellus in sagittis dui vel nisl duis ac nibh fusce lacus purus aliquet at feugiat non pretium quis lectus suspendisse potenti in eleifend quam a odio in hac habitasse platea dictumst maecenas</t>
+  </si>
+  <si>
+    <t>vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae donec pharetra magna vestibulum aliquet ultrices erat tortor sollicitudin mi sit amet lobortis sapien sapien non mi integer ac neque duis bibendum morbi non quam nec dui luctus rutrum nulla tellus in sagittis dui</t>
+  </si>
+  <si>
+    <t>ornare consequat lectus in est risus auctor sed tristique in tempus sit amet sem fusce consequat nulla nisl nunc nisl duis bibendum felis sed interdum venenatis turpis enim blandit mi in porttitor pede justo eu massa donec dapibus duis at velit eu est congue elementum in hac habitasse platea dictumst morbi vestibulum velit id pretium iaculis diam erat fermentum justo nec condimentum neque</t>
+  </si>
+  <si>
+    <t>pellentesque viverra pede ac diam cras pellentesque volutpat dui maecenas tristique est et tempus semper est quam pharetra magna ac consequat metus sapien ut nunc vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae mauris</t>
+  </si>
+  <si>
+    <t>pellentesque at nulla suspendisse potenti cras in purus eu magna vulputate luctus cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus vivamus vestibulum sagittis sapien cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus etiam vel augue vestibulum rutrum rutrum neque aenean auctor gravida sem praesent id massa id nisl venenatis lacinia aenean sit amet justo morbi ut odio cras mi pede malesuada in imperdiet et commodo vulputate justo in blandit ultrices</t>
+  </si>
+  <si>
+    <t>sed augue aliquam erat volutpat in congue etiam justo etiam pretium iaculis justo in hac habitasse platea dictumst etiam faucibus cursus urna ut tellus nulla ut erat id mauris vulputate elementum nullam varius nulla facilisi cras non velit nec nisi vulputate nonummy maecenas tincidunt lacus at velit vivamus vel nulla eget eros elementum pellentesque quisque porta volutpat erat quisque erat eros viverra eget congue eget semper rutrum nulla nunc purus phasellus in felis donec semper sapien a libero nam dui proin leo odio porttitor id</t>
+  </si>
+  <si>
+    <t>dis parturient montes nascetur ridiculus mus vivamus vestibulum sagittis sapien cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus etiam vel augue vestibulum rutrum rutrum neque aenean auctor gravida sem praesent id massa id nisl venenatis lacinia aenean sit amet justo morbi ut odio cras mi pede malesuada in imperdiet et commodo vulputate justo in blandit ultrices enim lorem ipsum dolor sit amet consectetuer adipiscing elit proin interdum mauris non ligula pellentesque ultrices phasellus id sapien in sapien iaculis congue vivamus metus arcu adipiscing molestie hendrerit at vulputate vitae nisl aenean lectus pellentesque eget nunc donec quis</t>
+  </si>
+  <si>
+    <t>pharetra magna vestibulum aliquet ultrices erat tortor sollicitudin mi sit amet lobortis sapien sapien non mi integer ac neque duis bibendum morbi non quam nec dui luctus rutrum nulla tellus in sagittis dui vel nisl duis ac nibh fusce lacus purus aliquet at feugiat non pretium quis lectus suspendisse potenti in eleifend quam a odio in hac habitasse platea dictumst maecenas ut massa quis augue luctus tincidunt nulla mollis molestie lorem quisque ut erat curabitur gravida nisi at nibh in hac habitasse platea dictumst aliquam augue quam sollicitudin vitae</t>
+  </si>
+  <si>
+    <t>adipiscing elit proin risus praesent lectus vestibulum quam sapien varius ut blandit non interdum in ante vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae duis faucibus accumsan odio curabitur convallis duis consequat dui</t>
+  </si>
+  <si>
+    <t>fringilla rhoncus mauris enim leo rhoncus sed vestibulum sit amet cursus id turpis integer aliquet massa id lobortis convallis tortor risus dapibus augue vel accumsan tellus nisi eu orci mauris lacinia sapien quis libero nullam sit amet turpis elementum ligula vehicula consequat morbi a ipsum integer a</t>
+  </si>
+  <si>
+    <t>consectetuer eget rutrum at lorem integer tincidunt ante vel ipsum praesent blandit lacinia erat vestibulum sed magna at nunc commodo placerat praesent blandit nam nulla integer pede justo lacinia eget tincidunt eget tempus vel pede morbi porttitor lorem id ligula suspendisse ornare consequat</t>
+  </si>
+  <si>
+    <t>leo pellentesque ultrices mattis odio donec vitae nisi nam ultrices libero non mattis pulvinar nulla pede ullamcorper augue a suscipit nulla elit ac nulla sed vel enim sit amet nunc viverra dapibus nulla suscipit ligula in lacus curabitur at ipsum ac tellus semper interdum mauris ullamcorper purus sit amet nulla quisque arcu libero rutrum ac</t>
+  </si>
+  <si>
+    <t>eget eros elementum pellentesque quisque porta volutpat erat quisque erat eros viverra eget congue eget semper rutrum nulla nunc purus phasellus in felis donec semper sapien a libero nam dui proin leo odio porttitor id consequat in consequat ut nulla sed</t>
+  </si>
+  <si>
+    <t>in purus eu magna vulputate luctus cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus vivamus vestibulum sagittis sapien cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus etiam vel augue vestibulum rutrum rutrum neque aenean auctor gravida sem praesent id massa</t>
+  </si>
+  <si>
+    <t>phasellus in felis donec semper sapien a libero nam dui proin leo odio porttitor id consequat in consequat ut nulla sed accumsan felis ut at dolor quis odio consequat varius integer ac leo pellentesque ultrices mattis odio donec vitae nisi nam ultrices libero non mattis pulvinar nulla pede ullamcorper augue a suscipit nulla elit ac nulla sed vel enim sit amet nunc viverra dapibus nulla suscipit ligula in lacus curabitur at ipsum ac tellus semper interdum mauris ullamcorper purus sit amet nulla quisque arcu libero rutrum ac lobortis vel dapibus at diam nam tristique tortor</t>
+  </si>
+  <si>
+    <t>justo morbi ut odio cras mi pede malesuada in imperdiet et commodo vulputate justo in blandit ultrices enim lorem ipsum dolor sit amet consectetuer adipiscing elit proin interdum mauris non ligula pellentesque ultrices phasellus id sapien in sapien iaculis congue vivamus metus arcu adipiscing molestie hendrerit at vulputate vitae nisl aenean</t>
+  </si>
+  <si>
+    <t>magnis dis parturient montes nascetur ridiculus mus vivamus vestibulum sagittis sapien cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus etiam vel augue vestibulum rutrum rutrum neque aenean auctor gravida sem praesent id massa id nisl venenatis lacinia aenean sit amet justo morbi ut odio cras mi pede malesuada in imperdiet</t>
+  </si>
+  <si>
+    <t>phasellus sit amet erat nulla tempus vivamus in felis eu sapien cursus vestibulum proin eu mi nulla ac enim in tempor turpis nec euismod scelerisque quam turpis adipiscing lorem vitae mattis nibh ligula nec</t>
+  </si>
+  <si>
+    <t>eu orci mauris lacinia sapien quis libero nullam sit amet turpis elementum ligula vehicula consequat morbi a ipsum integer a nibh in quis justo maecenas rhoncus aliquam lacus morbi quis tortor id nulla ultrices aliquet maecenas leo</t>
+  </si>
+  <si>
+    <t>justo nec condimentum neque sapien placerat ante nulla justo aliquam quis turpis eget elit sodales scelerisque mauris sit amet eros suspendisse accumsan tortor quis turpis sed ante vivamus tortor duis mattis egestas metus aenean fermentum donec ut mauris eget massa tempor convallis nulla neque libero convallis eget eleifend luctus ultricies eu nibh quisque id justo sit amet sapien dignissim vestibulum vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae nulla dapibus dolor vel est donec odio justo sollicitudin ut suscipit a feugiat et eros vestibulum ac est lacinia nisi venenatis tristique fusce congue diam id ornare</t>
+  </si>
+  <si>
+    <t>vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae mauris viverra diam vitae quam suspendisse potenti nullam porttitor lacus at turpis donec posuere metus vitae ipsum aliquam non mauris morbi non lectus aliquam sit amet diam in magna bibendum imperdiet nullam orci pede venenatis non sodales sed tincidunt eu felis fusce posuere felis sed lacus morbi sem mauris</t>
+  </si>
+  <si>
+    <t>vehicula condimentum curabitur in libero ut massa volutpat convallis morbi odio odio elementum eu interdum eu tincidunt in leo maecenas pulvinar lobortis est phasellus sit amet erat nulla tempus vivamus in felis eu sapien cursus vestibulum proin eu mi nulla ac enim in tempor turpis nec euismod scelerisque quam turpis</t>
+  </si>
+  <si>
+    <t>lacus at velit vivamus vel nulla eget eros elementum pellentesque quisque porta volutpat erat quisque erat eros viverra eget congue eget semper rutrum nulla nunc purus phasellus in felis donec semper sapien a libero nam dui proin leo odio porttitor id consequat in consequat ut nulla sed accumsan felis ut at dolor quis odio consequat varius integer ac leo pellentesque ultrices mattis odio donec vitae nisi nam ultrices libero non mattis pulvinar nulla pede ullamcorper augue a suscipit nulla elit ac nulla sed vel enim</t>
+  </si>
+  <si>
+    <t>eu nibh quisque id justo sit amet sapien dignissim vestibulum vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae nulla dapibus dolor vel est donec odio justo sollicitudin ut suscipit a feugiat et eros vestibulum ac est lacinia nisi venenatis tristique fusce congue diam id ornare imperdiet sapien urna pretium nisl ut volutpat sapien arcu sed augue aliquam erat volutpat in congue etiam justo etiam pretium iaculis justo in hac habitasse platea dictumst etiam faucibus cursus urna ut tellus nulla ut erat id mauris vulputate elementum nullam varius nulla facilisi cras non velit</t>
+  </si>
+  <si>
+    <t>quis lectus suspendisse potenti in eleifend quam a odio in hac habitasse platea dictumst maecenas ut massa quis augue luctus tincidunt nulla mollis molestie lorem quisque ut erat curabitur gravida nisi at nibh in hac habitasse platea dictumst aliquam augue quam sollicitudin vitae consectetuer eget rutrum at lorem integer tincidunt ante vel ipsum praesent blandit lacinia erat vestibulum sed magna at nunc commodo placerat praesent blandit nam nulla integer pede justo lacinia eget tincidunt eget tempus vel pede morbi porttitor lorem id ligula suspendisse ornare consequat lectus in</t>
+  </si>
+  <si>
+    <t>sapien cursus vestibulum proin eu mi nulla ac enim in tempor turpis nec euismod scelerisque quam turpis adipiscing lorem vitae mattis nibh ligula nec sem duis aliquam convallis nunc proin at turpis a pede posuere nonummy integer non velit donec diam neque vestibulum eget vulputate ut ultrices vel augue vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae donec pharetra magna</t>
+  </si>
+  <si>
+    <t>libero nullam sit amet turpis elementum ligula vehicula consequat morbi a ipsum integer a nibh in quis justo maecenas rhoncus aliquam lacus morbi quis tortor id nulla ultrices aliquet maecenas leo odio condimentum id luctus nec molestie sed justo pellentesque viverra pede ac diam cras pellentesque volutpat dui maecenas tristique est</t>
+  </si>
+  <si>
+    <t>erat fermentum justo nec condimentum neque sapien placerat ante nulla justo aliquam quis turpis eget elit sodales scelerisque mauris sit amet eros suspendisse accumsan tortor quis turpis sed ante vivamus tortor duis mattis egestas metus aenean fermentum donec ut mauris eget massa tempor convallis nulla neque</t>
+  </si>
+  <si>
+    <t>erat quisque erat eros viverra eget congue eget semper rutrum nulla nunc purus phasellus in felis donec semper sapien a libero nam dui proin leo odio porttitor id consequat in consequat ut nulla sed accumsan felis ut at dolor quis odio consequat varius integer ac leo pellentesque ultrices mattis odio donec vitae nisi nam ultrices libero non mattis pulvinar nulla pede ullamcorper augue a suscipit nulla elit ac nulla sed vel enim sit amet nunc viverra dapibus nulla suscipit ligula in lacus</t>
+  </si>
+  <si>
+    <t>ultrices posuere cubilia curae mauris viverra diam vitae quam suspendisse potenti nullam porttitor lacus at turpis donec posuere metus vitae ipsum aliquam non mauris morbi non lectus aliquam sit amet diam in magna bibendum imperdiet nullam orci pede venenatis non sodales sed tincidunt eu</t>
+  </si>
+  <si>
+    <t>elementum ligula vehicula consequat morbi a ipsum integer a nibh in quis justo maecenas rhoncus aliquam lacus morbi quis tortor id nulla ultrices aliquet maecenas leo odio condimentum id luctus nec molestie sed justo pellentesque viverra pede ac diam cras pellentesque volutpat dui maecenas tristique est et tempus semper est quam pharetra magna ac consequat metus</t>
+  </si>
+  <si>
+    <t>tincidunt eu felis fusce posuere felis sed lacus morbi sem mauris laoreet ut rhoncus aliquet pulvinar sed nisl nunc rhoncus dui vel sem sed sagittis nam congue risus semper porta volutpat quam pede lobortis ligula sit amet eleifend pede libero quis orci nullam molestie nibh in lectus pellentesque at nulla suspendisse potenti cras in purus eu magna vulputate luctus cum sociis natoque penatibus et magnis dis parturient montes</t>
+  </si>
+  <si>
+    <t>sed sagittis nam congue risus semper porta volutpat quam pede lobortis ligula sit amet eleifend pede libero quis orci nullam molestie nibh in lectus pellentesque at nulla suspendisse potenti cras in purus eu magna vulputate luctus cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus vivamus vestibulum sagittis sapien cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus etiam vel augue vestibulum rutrum rutrum neque</t>
+  </si>
+  <si>
+    <t>justo sollicitudin ut suscipit a feugiat et eros vestibulum ac est lacinia nisi venenatis tristique fusce congue diam id ornare imperdiet sapien urna pretium nisl ut volutpat sapien arcu sed augue aliquam erat volutpat in congue etiam justo etiam pretium iaculis justo in hac habitasse platea dictumst etiam faucibus cursus urna ut tellus nulla ut erat id mauris vulputate elementum nullam varius nulla facilisi cras non velit nec nisi vulputate nonummy maecenas tincidunt</t>
+  </si>
+  <si>
+    <t>id consequat in consequat ut nulla sed accumsan felis ut at dolor quis odio consequat varius integer ac leo pellentesque ultrices mattis odio donec vitae nisi nam ultrices libero non mattis pulvinar nulla pede ullamcorper augue a suscipit nulla elit ac nulla sed vel enim sit amet nunc viverra dapibus nulla suscipit ligula in lacus curabitur at ipsum ac tellus semper interdum mauris</t>
   </si>
 </sst>
 </file>
@@ -539,9 +1271,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,25 +1591,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E4914E-E364-492C-A418-E11389129FC0}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F45"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -891,12 +1623,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(E2, "_title")</f>
@@ -907,20 +1645,25 @@
         <v>Addiction_sd</v>
       </c>
       <c r="D2" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D2,Authors!$A$2:$F$16,6,FALSE)</f>
+        <f ca="1">VLOOKUP(Blogs!$D2,Authors!$B$2:$G$16,6,FALSE)</f>
         <v>Emyle Britee, MS</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="1">
         <v>43650.741631944446</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>1+A2</f>
-        <v>2</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>165</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B45" si="0">CONCATENATE(E3, "_title")</f>
@@ -931,20 +1674,25 @@
         <v>Allergy_sd</v>
       </c>
       <c r="D3" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D3,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Maitilde Shead, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D3,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H3" s="1">
         <v>43983.622939814813</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A45" si="2">1+A3</f>
-        <v>3</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -955,20 +1703,25 @@
         <v>Autism_sd</v>
       </c>
       <c r="D4" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D4,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D4,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H4" s="1">
         <v>44052.233229166668</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="2"/>
-        <v>4</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -979,20 +1732,25 @@
         <v>Buckeye Stories_sd</v>
       </c>
       <c r="D5" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D5,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Lawton Basden, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D5,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="1">
         <v>43953.700960648152</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1003,20 +1761,25 @@
         <v>Burn and Wound_sd</v>
       </c>
       <c r="D6" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D6,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Clarisse Wintour, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D6,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="1">
         <v>44503.872523148151</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="2"/>
-        <v>6</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>169</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1027,20 +1790,25 @@
         <v>Cancer_sd</v>
       </c>
       <c r="D7" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D7,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Dorry Djorevic, LISW</v>
+        <f ca="1">VLOOKUP(Blogs!$D7,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H7" s="1">
         <v>44436.837754629632</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="2"/>
-        <v>7</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1051,20 +1819,25 @@
         <v>Cognitive and Memory Disorders_sd</v>
       </c>
       <c r="D8" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D8,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D8,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="1">
         <v>43883.556168981479</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="2"/>
-        <v>8</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>171</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1075,20 +1848,25 @@
         <v>Dermatology_sd</v>
       </c>
       <c r="D9" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D9,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Clarisse Wintour, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D9,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="1">
         <v>44342.035775462966</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>172</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1099,20 +1877,25 @@
         <v>Diabetes_sd</v>
       </c>
       <c r="D10" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D10,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Clarisse Wintour, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D10,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" t="s">
+        <v>363</v>
+      </c>
+      <c r="H10" s="1">
         <v>43981.434108796297</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>173</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1123,20 +1906,25 @@
         <v>Digestive Diseases_sd</v>
       </c>
       <c r="D11" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D11,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Analise Gargett, PharmD</v>
+        <f ca="1">VLOOKUP(Blogs!$D11,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" t="s">
+        <v>364</v>
+      </c>
+      <c r="H11" s="1">
         <v>44439.301180555558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="2"/>
-        <v>11</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>174</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1147,20 +1935,25 @@
         <v>Ear Nose and Throat_sd</v>
       </c>
       <c r="D12" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D12,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Trudi Aujouanet, MD</v>
+        <f ca="1">VLOOKUP(Blogs!$D12,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H12" s="1">
         <v>43839.48810185185</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="2"/>
-        <v>12</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1171,20 +1964,25 @@
         <v>Emergency Medicine_sd</v>
       </c>
       <c r="D13" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D13,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Talia Harower, D(ABMM)</v>
+        <f ca="1">VLOOKUP(Blogs!$D13,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="1">
         <v>44165.725937499999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="2"/>
-        <v>13</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1195,20 +1993,25 @@
         <v>Endocrinology_sd</v>
       </c>
       <c r="D14" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D14,Authors!$A$2:$F$16,6,FALSE)</f>
+        <f ca="1">VLOOKUP(Blogs!$D14,Authors!$B$2:$G$16,6,FALSE)</f>
         <v>Analise Gargett, PharmD</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" s="1">
         <v>43789.461516203701</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="2"/>
-        <v>14</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>177</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1219,20 +2022,25 @@
         <v>Eye Care_sd</v>
       </c>
       <c r="D15" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D15,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Maitilde Shead, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D15,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="1">
         <v>44378.034907407404</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="2"/>
-        <v>15</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1243,20 +2051,25 @@
         <v>Family_sd</v>
       </c>
       <c r="D16" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D16,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Maitilde Shead, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D16,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H16" s="1">
         <v>43929.743101851855</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="2"/>
-        <v>16</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>179</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1267,20 +2080,25 @@
         <v>Fitness_sd</v>
       </c>
       <c r="D17" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D17,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Clarisse Wintour, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D17,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="1">
         <v>44082.219421296293</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="2"/>
-        <v>17</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1291,20 +2109,25 @@
         <v>Geriatrics_sd</v>
       </c>
       <c r="D18" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D18,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Analise Gargett, PharmD</v>
+        <f ca="1">VLOOKUP(Blogs!$D18,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H18" s="1">
         <v>44683.857743055552</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="2"/>
-        <v>18</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
       </c>
       <c r="B19" t="str">
         <f>CONCATENATE(E19, "_title")</f>
@@ -1315,20 +2138,25 @@
         <v>Health and Wellness_sd</v>
       </c>
       <c r="D19" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D19,Authors!$A$2:$F$16,6,FALSE)</f>
+        <f ca="1">VLOOKUP(Blogs!$D19,Authors!$B$2:$G$16,6,FALSE)</f>
         <v>Analise Gargett, PharmD</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="1">
         <v>43960.36509259259</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="2"/>
-        <v>19</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
       </c>
       <c r="B20" t="str">
         <f>CONCATENATE(E20, "_title_1")</f>
@@ -1339,20 +2167,25 @@
         <v>Health and Wellness_sd_1</v>
       </c>
       <c r="D20" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D20,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Analise Gargett, PharmD</v>
+        <f ca="1">VLOOKUP(Blogs!$D20,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" t="s">
+        <v>373</v>
+      </c>
+      <c r="H20" s="1">
         <v>44440.085810185185</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="2"/>
-        <v>20</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1363,20 +2196,25 @@
         <v>Healthy Eating_sd</v>
       </c>
       <c r="D21" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D21,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Lawton Basden, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D21,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" t="s">
+        <v>374</v>
+      </c>
+      <c r="H21" s="1">
         <v>44413.808518518519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="2"/>
-        <v>21</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1387,20 +2225,25 @@
         <v>Hearing Loss_sd</v>
       </c>
       <c r="D22" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D22,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Emyle Britee, MS</v>
+        <f ca="1">VLOOKUP(Blogs!$D22,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" s="1">
         <v>44515.085358796299</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="2"/>
-        <v>22</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>185</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1411,20 +2254,25 @@
         <v>Heart and Vascular Health_sd</v>
       </c>
       <c r="D23" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D23,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Lawton Basden, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D23,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="1">
         <v>43844.797719907408</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="2"/>
-        <v>23</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1435,20 +2283,25 @@
         <v>Infectious Diseases_sd</v>
       </c>
       <c r="D24" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D24,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D24,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" t="s">
+        <v>377</v>
+      </c>
+      <c r="H24" s="1">
         <v>44647.730243055557</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="2"/>
-        <v>24</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>187</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1459,20 +2312,25 @@
         <v>Integrative Medicine_sd</v>
       </c>
       <c r="D25" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D25,Authors!$A$2:$F$16,6,FALSE)</f>
+        <f ca="1">VLOOKUP(Blogs!$D25,Authors!$B$2:$G$16,6,FALSE)</f>
         <v>Emyle Britee, MS</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" s="1">
         <v>43683.203715277778</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="2"/>
-        <v>25</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>188</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1483,20 +2341,25 @@
         <v>Lung and Pulmonary_sd</v>
       </c>
       <c r="D26" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D26,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Clarisse Wintour, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D26,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>379</v>
+      </c>
+      <c r="H26" s="1">
         <v>44711.372303240743</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="2"/>
-        <v>26</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>189</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1507,20 +2370,25 @@
         <v>Mental and Behavioral Health_sd</v>
       </c>
       <c r="D27" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D27,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D27,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" t="s">
+        <v>380</v>
+      </c>
+      <c r="H27" s="1">
         <v>44537.602222222224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="2"/>
-        <v>27</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>190</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -1531,20 +2399,25 @@
         <v>MyChart_sd</v>
       </c>
       <c r="D28" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D28,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Analise Gargett, PharmD</v>
+        <f ca="1">VLOOKUP(Blogs!$D28,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" s="1">
         <v>43754.51321759259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="2"/>
-        <v>28</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>191</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -1555,20 +2428,25 @@
         <v>Neurological Institute_sd</v>
       </c>
       <c r="D29" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D29,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Analise Gargett, PharmD</v>
+        <f ca="1">VLOOKUP(Blogs!$D29,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>382</v>
+      </c>
+      <c r="H29" s="1">
         <v>44263.361319444448</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="2"/>
-        <v>29</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>192</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -1579,20 +2457,25 @@
         <v>Nursing_sd</v>
       </c>
       <c r="D30" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D30,Authors!$A$2:$F$16,6,FALSE)</f>
+        <f ca="1">VLOOKUP(Blogs!$D30,Authors!$B$2:$G$16,6,FALSE)</f>
         <v>Maitilde Shead, RN</v>
       </c>
       <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>383</v>
+      </c>
+      <c r="H30" s="1">
         <v>43713.270162037035</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>1+A30</f>
-        <v>30</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>193</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -1603,20 +2486,25 @@
         <v>Orthopedics_sd</v>
       </c>
       <c r="D31" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D31,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D31,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" s="1">
         <v>43728.261180555557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="2"/>
-        <v>31</v>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>194</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -1627,20 +2515,25 @@
         <v>Physical Medicine and Rehabilitation_sd</v>
       </c>
       <c r="D32" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D32,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Trudi Aujouanet, MD</v>
+        <f ca="1">VLOOKUP(Blogs!$D32,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>385</v>
+      </c>
+      <c r="H32" s="1">
         <v>44387.354062500002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="2"/>
-        <v>32</v>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>195</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -1651,20 +2544,25 @@
         <v>Plastic Surgery_sd</v>
       </c>
       <c r="D33" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D33,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D33,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
       </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>386</v>
+      </c>
+      <c r="H33" s="1">
         <v>44707.080995370372</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="2"/>
-        <v>33</v>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>196</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -1675,20 +2573,25 @@
         <v>Primary Care_sd</v>
       </c>
       <c r="D34" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D34,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D34,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>387</v>
+      </c>
+      <c r="H34" s="1">
         <v>43892.60765046296</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="2"/>
-        <v>34</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>197</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -1699,20 +2602,25 @@
         <v>Research_sd</v>
       </c>
       <c r="D35" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D35,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Maitilde Shead, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D35,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>388</v>
+      </c>
+      <c r="H35" s="1">
         <v>43762.497800925928</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="2"/>
-        <v>35</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -1723,20 +2631,25 @@
         <v>Rheumatology_sd</v>
       </c>
       <c r="D36" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D36,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Dorry Djorevic, LISW</v>
+        <f ca="1">VLOOKUP(Blogs!$D36,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" t="s">
+        <v>389</v>
+      </c>
+      <c r="H36" s="1">
         <v>44580.349097222221</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="2"/>
-        <v>36</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -1747,20 +2660,25 @@
         <v>Sleep_sd</v>
       </c>
       <c r="D37" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D37,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Talia Harower, D(ABMM)</v>
+        <f ca="1">VLOOKUP(Blogs!$D37,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" t="s">
+        <v>390</v>
+      </c>
+      <c r="H37" s="1">
         <v>43760.509976851848</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>37</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>200</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -1771,20 +2689,25 @@
         <v>Sports Medicine_sd</v>
       </c>
       <c r="D38" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D38,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Trudi Aujouanet, MD</v>
+        <f ca="1">VLOOKUP(Blogs!$D38,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" t="s">
+        <v>391</v>
+      </c>
+      <c r="H38" s="1">
         <v>44588.86146990741</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>38</v>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>201</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -1795,20 +2718,25 @@
         <v>Stress Management_sd</v>
       </c>
       <c r="D39" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D39,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D39,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" t="s">
+        <v>392</v>
+      </c>
+      <c r="H39" s="1">
         <v>44516.732303240744</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>39</v>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>202</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -1819,20 +2747,25 @@
         <v>Tech and Innovation_sd</v>
       </c>
       <c r="D40" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D40,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Clarisse Wintour, PhD</v>
+        <f ca="1">VLOOKUP(Blogs!$D40,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Lawton Basden, RN</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G40" t="s">
+        <v>393</v>
+      </c>
+      <c r="H40" s="1">
         <v>44313.694722222222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>40</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -1843,20 +2776,25 @@
         <v>Transplant_sd</v>
       </c>
       <c r="D41" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D41,Authors!$A$2:$F$16,6,FALSE)</f>
+        <f ca="1">VLOOKUP(Blogs!$D41,Authors!$B$2:$G$16,6,FALSE)</f>
         <v>Clarisse Wintour, PhD</v>
       </c>
       <c r="E41" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" t="s">
+        <v>394</v>
+      </c>
+      <c r="H41" s="1">
         <v>44277.690486111111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>41</v>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -1867,20 +2805,25 @@
         <v>Urology_sd</v>
       </c>
       <c r="D42" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D42,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Talia Harower, D(ABMM)</v>
+        <f ca="1">VLOOKUP(Blogs!$D42,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Trudi Aujouanet, MD</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" t="s">
+        <v>395</v>
+      </c>
+      <c r="H42" s="1">
         <v>43722.768078703702</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="2"/>
-        <v>42</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>205</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -1891,20 +2834,25 @@
         <v>Weight Management_sd</v>
       </c>
       <c r="D43" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D43,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Lawton Basden, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D43,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
       </c>
       <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" t="s">
+        <v>396</v>
+      </c>
+      <c r="H43" s="1">
         <v>44597.995046296295</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="2"/>
-        <v>43</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>206</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -1915,20 +2863,25 @@
         <v>Women and Infants_sd</v>
       </c>
       <c r="D44" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D44,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Lawton Basden, RN</v>
+        <f ca="1">VLOOKUP(Blogs!$D44,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Emyle Britee, MS</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" t="s">
+        <v>397</v>
+      </c>
+      <c r="H44" s="1">
         <v>43947.205312500002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="2"/>
-        <v>44</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>207</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -1939,13 +2892,19 @@
         <v>Womens Health_sd</v>
       </c>
       <c r="D45" t="str">
-        <f ca="1">VLOOKUP(Blogs!$D45,Authors!$A$2:$F$16,6,FALSE)</f>
-        <v>Talia Harower, D(ABMM)</v>
+        <f ca="1">VLOOKUP(Blogs!$D45,Authors!$B$2:$G$16,6,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
       </c>
       <c r="E45" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G45" t="s">
+        <v>398</v>
+      </c>
+      <c r="H45" s="1">
         <v>44576.97761574074</v>
       </c>
     </row>
@@ -1956,26 +2915,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD98D479-EDA0-489A-9E07-8C27F6ED29A4}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1990,1196 +2949,1244 @@
         <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>CONCATENATE(E2, "_title")</f>
-        <v>Addiction_title</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE(E2, "_sd")</f>
-        <v>Addiction_sd</v>
-      </c>
-      <c r="D2">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*9+1)</f>
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>5da22d78-8a8c-4b75-bbac-240d99860964</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(Main!E2,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>6be5e1bd-c251-43a6-b15d-8b2ef186a56a</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1">
+        <v>355</v>
+      </c>
+      <c r="G2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="1">
         <v>43650.741631944446</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>1+A2</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B45" si="0">CONCATENATE(E3, "_title")</f>
-        <v>Allergy_title</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C45" si="1">CONCATENATE(E3, "_sd")</f>
-        <v>Allergy_sd</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D45" ca="1" si="2">_xlfn.CEILING.MATH(RAND()*9+1)</f>
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(Main!E3,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>f52b02de-8f21-4233-972c-af3cf16b02bb</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="1">
+        <v>356</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="1">
         <v>43983.622939814813</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A45" si="3">1+A3</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Autism_title</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>Autism_sd</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>1e77683a-4b41-4209-be2b-504ddc951b2a</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(Main!E4,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>bf675ca0-7123-4cab-99da-157cceadde66</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="1">
+        <v>357</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="1">
         <v>44052.233229166668</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Buckeye Stories_title</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>Buckeye Stories_sd</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(Main!E5,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>93573c95-ef0e-436f-bf9d-406a4c18cd02</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="1">
+        <v>358</v>
+      </c>
+      <c r="G5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="1">
         <v>43953.700960648152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Burn and Wound_title</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>Burn and Wound_sd</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>42f6cd04-bd57-4b4e-b1ec-94fe07d3c8c4</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(Main!E6,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>c1d9145a-021d-4e88-aab3-2d42e57050ed</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="1">
+        <v>359</v>
+      </c>
+      <c r="G6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="1">
         <v>44503.872523148151</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Cancer_title</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>Cancer_sd</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>1e77683a-4b41-4209-be2b-504ddc951b2a</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(Main!E7,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>82091cb0-32e6-4186-8876-f87592839c4d</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="1">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="1">
         <v>44436.837754629632</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Cognitive and Memory Disorders_title</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Cognitive and Memory Disorders_sd</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>5da22d78-8a8c-4b75-bbac-240d99860964</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(Main!E8,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>3faf091c-f56b-47fc-a14c-fb386a46d797</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="1">
+        <v>361</v>
+      </c>
+      <c r="G8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="1">
         <v>43883.556168981479</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Dermatology_title</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>Dermatology_sd</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(Main!E9,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>7bb7e166-65e0-4055-9f81-cd0b3a24b1d6</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="1">
+        <v>362</v>
+      </c>
+      <c r="G9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="1">
         <v>44342.035775462966</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Diabetes_title</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>Diabetes_sd</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(Main!E10,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>7ae2a089-5564-4932-8a06-56ae7c0d5e6a</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="1">
+        <v>363</v>
+      </c>
+      <c r="G10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="1">
         <v>43981.434108796297</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Digestive Diseases_title</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>Digestive Diseases_sd</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>065387bd-9ee8-49ed-ba7b-7fe054f5b97a</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(Main!E11,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>6d3549a5-5278-494b-a4ec-c5b52d10b7bf</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="1">
+        <v>364</v>
+      </c>
+      <c r="G11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="1">
         <v>44439.301180555558</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Ear Nose and Throat_title</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>Ear Nose and Throat_sd</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>5da22d78-8a8c-4b75-bbac-240d99860964</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(Main!E12,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>348f1299-70f9-451f-9d4f-a5e542e8f9b7</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="1">
+        <v>365</v>
+      </c>
+      <c r="G12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H12" s="1">
         <v>43839.48810185185</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Emergency Medicine_title</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>Emergency Medicine_sd</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>1e77683a-4b41-4209-be2b-504ddc951b2a</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(Main!E13,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>1367c096-96d7-4c5f-92a8-457671dc9a4d</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="1">
+        <v>366</v>
+      </c>
+      <c r="G13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="1">
         <v>44165.725937499999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Endocrinology_title</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>Endocrinology_sd</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>a7cc68b0-0148-49d7-9bfd-784d30dc563f</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP(Main!E14,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>a7fd0ddf-7cfb-4a55-89d9-33f675d767c5</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="1">
+        <v>367</v>
+      </c>
+      <c r="G14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="1">
         <v>43789.461516203701</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Eye Care_title</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>Eye Care_sd</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>cb70de16-1b9f-4c03-9745-7bc2f67fe8a3</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(Main!E15,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>36d61360-6c62-4649-bc5c-08495f4de6ea</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="1">
+        <v>368</v>
+      </c>
+      <c r="G15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="1">
         <v>44378.034907407404</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Family_title</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>Family_sd</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>065387bd-9ee8-49ed-ba7b-7fe054f5b97a</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(Main!E16,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>76f2a8f5-0f4b-412d-9bf1-8635d9f88b48</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="1">
+        <v>369</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="1">
         <v>43929.743101851855</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>Fitness_title</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>Fitness_sd</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>5da22d78-8a8c-4b75-bbac-240d99860964</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(Main!E17,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>22ba970d-a33b-489d-a110-d427cc1fa95d</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="1">
+        <v>370</v>
+      </c>
+      <c r="G17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="1">
         <v>44082.219421296293</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>Geriatrics_title</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>Geriatrics_sd</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>cb70de16-1b9f-4c03-9745-7bc2f67fe8a3</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP(Main!E18,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>71650815-15c3-4d7c-86df-8312ab3a834f</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="1">
+        <v>371</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="1">
         <v>44683.857743055552</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f>CONCATENATE(E19, "_title")</f>
-        <v>Health and Wellness_title</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>Health and Wellness_sd</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>a7cc68b0-0148-49d7-9bfd-784d30dc563f</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(Main!E19,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>19e1ba35-6a0c-4a8c-afad-2640f452a576</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="1">
+        <v>372</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="1">
         <v>43960.36509259259</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f>CONCATENATE(E20, "_title_1")</f>
-        <v>Health and Wellness_title_1</v>
-      </c>
-      <c r="C20" t="str">
-        <f>CONCATENATE(E20, "_sd_1")</f>
-        <v>Health and Wellness_sd_1</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(Main!E20,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>19e1ba35-6a0c-4a8c-afad-2640f452a576</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="1">
+        <v>373</v>
+      </c>
+      <c r="G20" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="1">
         <v>44440.085810185185</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Healthy Eating_title</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>Healthy Eating_sd</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP(Main!E21,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>66dfc862-0bc6-4fbf-8766-bbaf9b159df8</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="1">
+        <v>374</v>
+      </c>
+      <c r="G21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="1">
         <v>44413.808518518519</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Hearing Loss_title</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>Hearing Loss_sd</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>cb70de16-1b9f-4c03-9745-7bc2f67fe8a3</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(Main!E22,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>2add1231-66a2-46c9-850a-b910febe1e1e</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="1">
+        <v>375</v>
+      </c>
+      <c r="G22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" s="1">
         <v>44515.085358796299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>Heart and Vascular Health_title</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>Heart and Vascular Health_sd</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>cb70de16-1b9f-4c03-9745-7bc2f67fe8a3</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(Main!E23,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>de0c8e36-f17f-4c69-8d24-57a139b2da4c</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="1">
+        <v>376</v>
+      </c>
+      <c r="G23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="1">
         <v>43844.797719907408</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>Infectious Diseases_title</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>Infectious Diseases_sd</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>5da22d78-8a8c-4b75-bbac-240d99860964</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(Main!E24,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>bdf7223a-15c4-47ec-9d78-6bd8bb98e39d</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="1">
+        <v>377</v>
+      </c>
+      <c r="G24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="1">
         <v>44647.730243055557</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>Integrative Medicine_title</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>Integrative Medicine_sd</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>5da22d78-8a8c-4b75-bbac-240d99860964</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP(Main!E25,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>8a7046c9-baac-4851-823b-9ed3582d6e3d</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="1">
+        <v>378</v>
+      </c>
+      <c r="G25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="1">
         <v>43683.203715277778</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>Lung and Pulmonary_title</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>Lung and Pulmonary_sd</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP(Main!E26,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>50bac8b4-bb8d-437e-b4e8-9ea9f6b89854</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="1">
+        <v>379</v>
+      </c>
+      <c r="G26" t="s">
+        <v>248</v>
+      </c>
+      <c r="H26" s="1">
         <v>44711.372303240743</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>Mental and Behavioral Health_title</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>Mental and Behavioral Health_sd</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>80db5fe9-406d-4249-802e-dec26f80a883</v>
+      </c>
+      <c r="E27" t="str">
+        <f>VLOOKUP(Main!E27,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>ff9db129-1bbc-4c95-86ef-fae8c20dacbe</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="1">
+        <v>380</v>
+      </c>
+      <c r="G27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H27" s="1">
         <v>44537.602222222224</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>MyChart_title</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>MyChart_sd</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>80db5fe9-406d-4249-802e-dec26f80a883</v>
+      </c>
+      <c r="E28" t="str">
+        <f>VLOOKUP(Main!E28,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>eec9a9e0-fb28-4c8b-95e7-5acca2bfe0b3</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="1">
+        <v>381</v>
+      </c>
+      <c r="G28" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" s="1">
         <v>43754.51321759259</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>Neurological Institute_title</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>Neurological Institute_sd</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>42f6cd04-bd57-4b4e-b1ec-94fe07d3c8c4</v>
+      </c>
+      <c r="E29" t="str">
+        <f>VLOOKUP(Main!E29,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>dd322c4d-8ac1-4ccb-a9cf-7a6e8bb32fd7</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="1">
+        <v>382</v>
+      </c>
+      <c r="G29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="1">
         <v>44263.361319444448</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>Nursing_title</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>Nursing_sd</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>1e77683a-4b41-4209-be2b-504ddc951b2a</v>
+      </c>
+      <c r="E30" t="str">
+        <f>VLOOKUP(Main!E30,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>0d73e652-9bc2-4c59-94d0-4b3f18549b77</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="1">
+        <v>383</v>
+      </c>
+      <c r="G30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="1">
         <v>43713.270162037035</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>1+A30</f>
-        <v>30</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>Orthopedics_title</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>Orthopedics_sd</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>a7cc68b0-0148-49d7-9bfd-784d30dc563f</v>
+      </c>
+      <c r="E31" t="str">
+        <f>VLOOKUP(Main!E31,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>353ed493-6c5a-415c-8377-b4701468beec</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="1">
+        <v>384</v>
+      </c>
+      <c r="G31" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="1">
         <v>43728.261180555557</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>Physical Medicine and Rehabilitation_title</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>Physical Medicine and Rehabilitation_sd</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>cb70de16-1b9f-4c03-9745-7bc2f67fe8a3</v>
+      </c>
+      <c r="E32" t="str">
+        <f>VLOOKUP(Main!E32,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>504a3ed8-0551-4ccf-bae9-0cbf9391719d</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="1">
+        <v>385</v>
+      </c>
+      <c r="G32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H32" s="1">
         <v>44387.354062500002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>Plastic Surgery_title</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>Plastic Surgery_sd</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>1e77683a-4b41-4209-be2b-504ddc951b2a</v>
+      </c>
+      <c r="E33" t="str">
+        <f>VLOOKUP(Main!E33,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>2d2c2793-7678-47b2-9924-e2f1390294ce</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="1">
+        <v>386</v>
+      </c>
+      <c r="G33" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="1">
         <v>44707.080995370372</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>Primary Care_title</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>Primary Care_sd</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>1e77683a-4b41-4209-be2b-504ddc951b2a</v>
+      </c>
+      <c r="E34" t="str">
+        <f>VLOOKUP(Main!E34,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>fb7fff13-eec9-4d4d-a8c1-052ed29e8995</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="1">
+        <v>387</v>
+      </c>
+      <c r="G34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="1">
         <v>43892.60765046296</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>Research_title</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>Research_sd</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D35" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E35" t="str">
+        <f>VLOOKUP(Main!E35,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>b831b675-07a5-4921-a22b-5ea3f6887311</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="1">
+        <v>388</v>
+      </c>
+      <c r="G35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" s="1">
         <v>43762.497800925928</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>Rheumatology_title</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>Rheumatology_sd</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>37</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>065387bd-9ee8-49ed-ba7b-7fe054f5b97a</v>
+      </c>
+      <c r="E36" t="str">
+        <f>VLOOKUP(Main!E36,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>45be8f53-1db6-4755-8eee-5b3998e884aa</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="1">
+        <v>389</v>
+      </c>
+      <c r="G36" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="1">
         <v>44580.349097222221</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>Sleep_title</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>Sleep_sd</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>38</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>80db5fe9-406d-4249-802e-dec26f80a883</v>
+      </c>
+      <c r="E37" t="str">
+        <f>VLOOKUP(Main!E37,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>60dd0363-e415-40e7-9df4-81ae29882a4e</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="1">
+        <v>390</v>
+      </c>
+      <c r="G37" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="1">
         <v>43760.509976851848</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>Sports Medicine_title</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>Sports Medicine_sd</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>cb70de16-1b9f-4c03-9745-7bc2f67fe8a3</v>
+      </c>
+      <c r="E38" t="str">
+        <f>VLOOKUP(Main!E38,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>4a7927ba-8f5b-4995-9feb-b1d00d7d75f9</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="1">
+        <v>391</v>
+      </c>
+      <c r="G38" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="1">
         <v>44588.86146990741</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>Stress Management_title</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>Stress Management_sd</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>40</v>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>42f6cd04-bd57-4b4e-b1ec-94fe07d3c8c4</v>
+      </c>
+      <c r="E39" t="str">
+        <f>VLOOKUP(Main!E39,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>c5c74847-4242-4050-9645-36707390aa04</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="1">
+        <v>392</v>
+      </c>
+      <c r="G39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H39" s="1">
         <v>44516.732303240744</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>Tech and Innovation_title</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="1"/>
-        <v>Tech and Innovation_sd</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>41</v>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>ccbfec33-bb64-44f5-87fe-dec4c026ce7e</v>
+      </c>
+      <c r="E40" t="str">
+        <f>VLOOKUP(Main!E40,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>6c63389e-9f84-434f-8f7f-5c0de186c0fb</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="1">
+        <v>393</v>
+      </c>
+      <c r="G40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H40" s="1">
         <v>44313.694722222222</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>Transplant_title</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>Transplant_sd</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>42</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>80db5fe9-406d-4249-802e-dec26f80a883</v>
+      </c>
+      <c r="E41" t="str">
+        <f>VLOOKUP(Main!E41,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>50aa37b0-d412-4e24-a1d5-9b84565ed330</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="1">
+        <v>394</v>
+      </c>
+      <c r="G41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H41" s="1">
         <v>44277.690486111111</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Urology_title</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>Urology_sd</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>43</v>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" t="s">
+        <v>347</v>
+      </c>
+      <c r="D42" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>065387bd-9ee8-49ed-ba7b-7fe054f5b97a</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP(Main!E42,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>731fd3a7-2b34-4f7d-9bb9-6062a5166c73</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="1">
+        <v>395</v>
+      </c>
+      <c r="G42" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="1">
         <v>43722.768078703702</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>Weight Management_title</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>Weight Management_sd</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D43" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>1e77683a-4b41-4209-be2b-504ddc951b2a</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP(Main!E43,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>f5ffb239-0e08-4c4e-b9cb-abc34f6a8bba</v>
       </c>
       <c r="F43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="1">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>263</v>
+      </c>
+      <c r="H43" s="1">
         <v>44597.995046296295</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>Women and Infants_title</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>Women and Infants_sd</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>45</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>5da22d78-8a8c-4b75-bbac-240d99860964</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP(Main!E44,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>82972a69-60bc-4b31-93d7-a90882267c3f</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="1">
+        <v>397</v>
+      </c>
+      <c r="G44" t="s">
+        <v>264</v>
+      </c>
+      <c r="H44" s="1">
         <v>43947.205312500002</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>Womens Health_title</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>Womens Health_sd</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>46</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" t="str">
+        <f ca="1">VLOOKUP(_xlfn.CEILING.MATH(RAND()*9+1),Authors!A:B,2,FALSE)</f>
+        <v>e6c9ddf2-5dd2-40a3-b40d-b44b82750131</v>
+      </c>
+      <c r="E45" t="str">
+        <f>VLOOKUP(Main!E45,Topics!$C$2:$D$44,2,FALSE)</f>
+        <v>60150168-f1fc-48c0-ac63-bfeb7091008d</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="1">
+        <v>398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="1">
         <v>44576.97761574074</v>
       </c>
     </row>
@@ -3190,369 +4197,418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34946C6-B7B2-4340-A169-16E0ADD794C5}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
       <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="str">
-        <f>C2 &amp; " " &amp; B2 &amp; ", " &amp; VLOOKUP($D2,Titles!$A$2:$B$11,2,FALSE)</f>
+      <c r="G2" t="str">
+        <f>D2 &amp; " " &amp; C2 &amp; ", " &amp; VLOOKUP($E2,Titles!$A$2:$C$11,3,FALSE)</f>
         <v>Auguste Boatwright, MD</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="str">
-        <f>C3 &amp; " " &amp; B3 &amp; ", " &amp; VLOOKUP($D3,Titles!$A$2:$B$11,2,FALSE)</f>
+      <c r="G3" t="str">
+        <f>D3 &amp; " " &amp; C3 &amp; ", " &amp; VLOOKUP($E3,Titles!$A$2:$C$11,3,FALSE)</f>
         <v>Trudi Aujouanet, MD</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="D4">
+      <c r="G4" t="str">
+        <f>D4 &amp; " " &amp; C4 &amp; ", " &amp; VLOOKUP($E4,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Dorry Djorevic, LISW</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="str">
+        <f>D5 &amp; " " &amp; C5 &amp; ", " &amp; VLOOKUP($E5,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Analise Gargett, PharmD</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="str">
+        <f>D6 &amp; " " &amp; C6 &amp; ", " &amp; VLOOKUP($E6,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Putnem Morphet, PhD</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="str">
+        <f>D7 &amp; " " &amp; C7 &amp; ", " &amp; VLOOKUP($E7,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Lawton Basden, RN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="str">
+        <f>D8 &amp; " " &amp; C8 &amp; ", " &amp; VLOOKUP($E8,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Maitilde Shead, RN</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="str">
+        <f>D9 &amp; " " &amp; C9 &amp; ", " &amp; VLOOKUP($E9,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Talia Harower, D(ABMM)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="str">
+        <f>D10 &amp; " " &amp; C10 &amp; ", " &amp; VLOOKUP($E10,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Emyle Britee, MS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="str">
+        <f>D11 &amp; " " &amp; C11 &amp; ", " &amp; VLOOKUP($E11,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Clarisse Wintour, PhD</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="str">
-        <f>C4 &amp; " " &amp; B4 &amp; ", " &amp; VLOOKUP($D4,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Dorry Djorevic, LISW</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="str">
-        <f>C5 &amp; " " &amp; B5 &amp; ", " &amp; VLOOKUP($D5,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Analise Gargett, PharmD</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="str">
-        <f>C6 &amp; " " &amp; B6 &amp; ", " &amp; VLOOKUP($D6,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Putnem Morphet, PhD</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="str">
+        <f>D12 &amp; " " &amp; C12 &amp; ", " &amp; VLOOKUP($E12,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Sophia Michel, LISW</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="str">
-        <f>C7 &amp; " " &amp; B7 &amp; ", " &amp; VLOOKUP($D7,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Lawton Basden, RN</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="str">
+        <f>D13 &amp; " " &amp; C13 &amp; ", " &amp; VLOOKUP($E13,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Rhodie Shoesmith, D(ABMM)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="str">
-        <f>C8 &amp; " " &amp; B8 &amp; ", " &amp; VLOOKUP($D8,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Maitilde Shead, RN</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="str">
+        <f>D14 &amp; " " &amp; C14 &amp; ", " &amp; VLOOKUP($E14,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Nonie Shields, DVM</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="str">
-        <f>C9 &amp; " " &amp; B9 &amp; ", " &amp; VLOOKUP($D9,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Talia Harower, D(ABMM)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="str">
+        <f>D15 &amp; " " &amp; C15 &amp; ", " &amp; VLOOKUP($E15,Titles!$A$2:$C$11,3,FALSE)</f>
+        <v>Katina Tatlock, MD</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="str">
-        <f>C10 &amp; " " &amp; B10 &amp; ", " &amp; VLOOKUP($D10,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Emyle Britee, MS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="str">
-        <f>C11 &amp; " " &amp; B11 &amp; ", " &amp; VLOOKUP($D11,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Clarisse Wintour, PhD</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="str">
-        <f>C12 &amp; " " &amp; B12 &amp; ", " &amp; VLOOKUP($D12,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Sophia Michel, LISW</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="str">
-        <f>C13 &amp; " " &amp; B13 &amp; ", " &amp; VLOOKUP($D13,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Rhodie Shoesmith, D(ABMM)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="str">
-        <f>C14 &amp; " " &amp; B14 &amp; ", " &amp; VLOOKUP($D14,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Nonie Shields, DVM</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="str">
-        <f>C15 &amp; " " &amp; B15 &amp; ", " &amp; VLOOKUP($D15,Titles!$A$2:$B$11,2,FALSE)</f>
-        <v>Katina Tatlock, MD</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" t="str">
-        <f>C16 &amp; " " &amp; B16 &amp; ", " &amp; VLOOKUP($D16,Titles!$A$2:$B$11,2,FALSE)</f>
+      <c r="G16" t="str">
+        <f>D16 &amp; " " &amp; C16 &amp; ", " &amp; VLOOKUP($E16,Titles!$A$2:$C$11,3,FALSE)</f>
         <v>Don Ivan, MS</v>
       </c>
     </row>
@@ -3563,108 +4619,145 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B802DA53-C1DC-48A8-8ED8-C3684C54A4FB}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3674,409 +4767,676 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41EDBA-D45F-4E05-8513-C5A89667080E}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A44" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
         <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
